--- a/data/download/Competences-Map-Dataset.xlsx
+++ b/data/download/Competences-Map-Dataset.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="520">
   <si>
     <t>Skills</t>
   </si>
@@ -161,7 +161,7 @@
     <t>Social media strategy</t>
   </si>
   <si>
-    <t>Video production</t>
+    <t>Video Production</t>
   </si>
   <si>
     <t>Advocacy management</t>
@@ -482,9 +482,6 @@
     <t>Interactive Installations</t>
   </si>
   <si>
-    <t>Video Production</t>
-  </si>
-  <si>
     <t>Winemaking expertise</t>
   </si>
   <si>
@@ -818,7 +815,7 @@
     <t>["Multi - Multimedia Museum", "Cultural Avatars", "No Food Tomorrow - Eucarestia", "MODAS: Sas Boghes da sos Singers a Tenor"]</t>
   </si>
   <si>
-    <t>["Multi - Multimedia Museum", "A soup to remember", "TRACTION Opera co-creation for a social transformation", "Weaving Time", "Piccolo Museo del Diario"]</t>
+    <t>["Multi - Multimedia Museum", "ADLaM", "A soup to remember", "TRACTION Opera co-creation for a social transformation", "Weaving Time", "Piccolo Museo del Diario"]</t>
   </si>
   <si>
     <t>["Multi - Multimedia Museum", "Hundred Days: Winemaking Simulator", "Virtual Dance Museum", "Whispering table", "Synthetic Memories", "Craftal", "MEMEX. MEMories and EXperiences for inclusive digital storytelling", "Quantum Temple Path to Alango", "Quantum Temple Passport"]</t>
@@ -1097,6 +1094,12 @@
     <t>["Quantum Temple Path to Alango", "Quantum Temple Passport"]</t>
   </si>
   <si>
+    <t>["HKMALA - Hong Kong Martial Arts Living Archive"]</t>
+  </si>
+  <si>
+    <t>["Multi - Multimedia Museum", "ADLaM", "A soup to remember", "Pub Museums", "THE GREAT PALERMO", "No Food Tomorrow - Eucarestia", "MODAS: Sas Boghes da sos Singers a Tenor", "Camino Al Mictlan NFT", "Whispering table", "History Blocks", "Polifonia Portal", "TRACTION Opera co-creation for a social transformation", "Paderpedia", "Omni ChangâAn Site Concept Show", "Tempio del Brunello", "Renai Dance Animation", "ReCollection", "Synthetic Memories", "Lisbon Under Stars", "Craftal", "Bamboo Weaving Mold", "Urban Media Archive, [unarchiving] program", "Swapmuseun", "ComuniterrÃ e", "Tacit Dialogues", "Cyberknitics", "Kaarigari", "La Baguette stamp", "Fabric Museum: TextLoom", "Weaving Time", "Design philology", "MEMEX. MEMories and EXperiences for inclusive digital storytelling", "RÃ©veil des Archives sonores", "The Living Museum", "Planet Word: The First Voice-Activated Museum", "Piccolo Museo del Diario", "Quantum Temple Path to Alango", "Quantum Temple Passport", "HKMALA - Hong Kong Martial Arts Living Archive", ""]</t>
+  </si>
+  <si>
     <t>projects</t>
   </si>
   <si>
@@ -1112,6 +1115,9 @@
     <t>Multi - Multimedia Museum</t>
   </si>
   <si>
+    <t>Hundred Days: Winemaking Simulator</t>
+  </si>
+  <si>
     <t>ADLaM</t>
   </si>
   <si>
@@ -1121,6 +1127,9 @@
     <t>Pub Museums</t>
   </si>
   <si>
+    <t>THE GREAT PALERMO</t>
+  </si>
+  <si>
     <t>Cultural Avatars</t>
   </si>
   <si>
@@ -1142,6 +1151,9 @@
     <t>MODAS: Sas Boghes da sos Singers a Tenor</t>
   </si>
   <si>
+    <t>Camino Al Mictlan NFT</t>
+  </si>
+  <si>
     <t>Whispering table</t>
   </si>
   <si>
@@ -1160,9 +1172,15 @@
     <t>Paderpedia</t>
   </si>
   <si>
+    <t>Omni ChangâAn Site Concept Show</t>
+  </si>
+  <si>
     <t>Tempio del Brunello</t>
   </si>
   <si>
+    <t>Renai Dance Animation</t>
+  </si>
+  <si>
     <t>ReCollection</t>
   </si>
   <si>
@@ -1175,9 +1193,18 @@
     <t>Craftal</t>
   </si>
   <si>
+    <t>RISE UP - Revitalising Languages and Safeguarding Cultural Diversity</t>
+  </si>
+  <si>
     <t>Bamboo Weaving Mold</t>
   </si>
   <si>
+    <t>Urban Media Archive, [unarchiving] program</t>
+  </si>
+  <si>
+    <t>Swapmuseun</t>
+  </si>
+  <si>
     <t>ComuniterrÃ e</t>
   </si>
   <si>
@@ -1286,6 +1313,9 @@
     <t>["CAD software"]</t>
   </si>
   <si>
+    <t>["Text editing software","Video recording","2D image acquisition technologies"]</t>
+  </si>
+  <si>
     <t>["Audio recording","Motion detection systems","Video recording"]</t>
   </si>
   <si>
@@ -1319,6 +1349,9 @@
     <t>["Storytelling tools","Digital database"]</t>
   </si>
   <si>
+    <t>["Game engine","Simulation algorithms"]</t>
+  </si>
+  <si>
     <t>["Typeface modeling software","Vector graphic software","Text editing software"]</t>
   </si>
   <si>
@@ -1328,6 +1361,9 @@
     <t>["3D modeling software","Augmented Reality (AR)"]</t>
   </si>
   <si>
+    <t>["Visual-novel game engine","Vector graphic software"]</t>
+  </si>
+  <si>
     <t>["Game engine","3D modeling software"]</t>
   </si>
   <si>
@@ -1349,6 +1385,9 @@
     <t>["Audio processing technologies"]</t>
   </si>
   <si>
+    <t>["3D modeling software"]</t>
+  </si>
+  <si>
     <t>["Audio processing technologies","Multimedia development engines"]</t>
   </si>
   <si>
@@ -1367,6 +1406,9 @@
     <t>["Database technologies","Archival systems"]</t>
   </si>
   <si>
+    <t>["Visual Effects software","3D animation software","Digital embroidery tool","3D modeling software","Rendering software"]</t>
+  </si>
+  <si>
     <t>["Machine Learning","Text-to-Image model","NLP - Natural Language Processing"]</t>
   </si>
   <si>
@@ -1424,6 +1466,9 @@
     <t>["Web platform"]</t>
   </si>
   <si>
+    <t>["Game engine","Voice, video, and text communication app"]</t>
+  </si>
+  <si>
     <t>["Cloud Technologies"]</t>
   </si>
   <si>
@@ -1433,6 +1478,9 @@
     <t>["Mobile App","AR technologies"]</t>
   </si>
   <si>
+    <t>["Visual-novel game engine","Web platform"]</t>
+  </si>
+  <si>
     <t>["Game engine","Cloud Technologies"]</t>
   </si>
   <si>
@@ -1451,6 +1499,9 @@
     <t>["Audio streaming platforms"]</t>
   </si>
   <si>
+    <t>["VR","Web3 technologies","Blockchain and NFT technologies"]</t>
+  </si>
+  <si>
     <t>["Sensors","Microcontroller","Motion-activated system","Microphones","Wireless technologies"]</t>
   </si>
   <si>
@@ -1466,9 +1517,15 @@
     <t>["Web platform","Wiki-based platform"]</t>
   </si>
   <si>
+    <t>["Kinetic technologies","Projection mapping technologies"]</t>
+  </si>
+  <si>
     <t>["Mobile App","NFC (Near Field Communication)","Virtual Reality (VR)","Interactive Displays","Projection Mapping technologies","Sensors","Augmented Reality (AR)"]</t>
   </si>
   <si>
+    <t>["Videomaking software","Narrative development software"]</t>
+  </si>
+  <si>
     <t>["Projection mapping technologies","Generative AI","Voice-activated system"]</t>
   </si>
   <si>
@@ -1476,6 +1533,9 @@
   </si>
   <si>
     <t>["Paper printing"]</t>
+  </si>
+  <si>
+    <t>["Media technologies","Social Media"]</t>
   </si>
   <si>
     <t>["Motion Graphic Software","3D printing"]</t>
@@ -1894,10 +1954,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1908,7 +1968,7 @@
         <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1916,10 +1976,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1930,7 +1990,7 @@
         <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1938,10 +1998,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1949,10 +2009,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1960,10 +2020,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1971,10 +2031,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1982,10 +2042,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1993,10 +2053,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2004,10 +2064,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2015,10 +2075,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2026,10 +2086,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C14" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2037,10 +2097,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2048,10 +2108,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C16" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2059,10 +2119,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C17" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2070,10 +2130,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2081,10 +2141,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C19" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2092,10 +2152,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2103,10 +2163,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C21" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2114,10 +2174,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C22" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2125,10 +2185,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C23" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2136,7 +2196,7 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C24" t="s">
         <v>273</v>
@@ -2147,7 +2207,7 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C25" t="s">
         <v>274</v>
@@ -2158,7 +2218,7 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C26" t="s">
         <v>275</v>
@@ -2169,10 +2229,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C27" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2180,10 +2240,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C28" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2191,10 +2251,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C29" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2205,7 +2265,7 @@
         <v>46</v>
       </c>
       <c r="C30" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2216,7 +2276,7 @@
         <v>46</v>
       </c>
       <c r="C31" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2224,10 +2284,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C32" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2235,10 +2295,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C33" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2246,7 +2306,7 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C34" t="s">
         <v>279</v>
@@ -2257,7 +2317,7 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C35" t="s">
         <v>280</v>
@@ -2268,10 +2328,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C36" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2279,10 +2339,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C37" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2290,7 +2350,7 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C38" t="s">
         <v>282</v>
@@ -2301,10 +2361,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C39" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2312,10 +2372,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C40" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2323,7 +2383,7 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C41" t="s">
         <v>284</v>
@@ -2334,10 +2394,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C42" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2345,10 +2405,10 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C43" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -2356,10 +2416,10 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C44" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2370,7 +2430,7 @@
         <v>46</v>
       </c>
       <c r="C45" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -2378,10 +2438,10 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C46" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -2389,7 +2449,7 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C47" t="s">
         <v>287</v>
@@ -2400,10 +2460,10 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C48" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -2411,10 +2471,10 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C49" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -2422,10 +2482,10 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C50" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -2433,7 +2493,7 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C51" t="s">
         <v>290</v>
@@ -2444,10 +2504,10 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C52" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2455,10 +2515,10 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C53" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -2466,10 +2526,10 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C54" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -2477,10 +2537,10 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C55" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -2488,10 +2548,10 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C56" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -2499,10 +2559,10 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C57" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -2510,10 +2570,10 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C58" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -2521,10 +2581,10 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C59" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -2532,10 +2592,10 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C60" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -2543,10 +2603,10 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C61" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2554,7 +2614,7 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C62" t="s">
         <v>297</v>
@@ -2565,7 +2625,7 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C63" t="s">
         <v>298</v>
@@ -2576,10 +2636,10 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C64" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2587,7 +2647,7 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C65" t="s">
         <v>299</v>
@@ -2598,10 +2658,10 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C66" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2609,7 +2669,7 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C67" t="s">
         <v>300</v>
@@ -2620,10 +2680,10 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C68" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2631,10 +2691,10 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C69" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2642,10 +2702,10 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C70" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2653,10 +2713,10 @@
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C71" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2664,10 +2724,10 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C72" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -2675,10 +2735,10 @@
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C73" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -2686,10 +2746,10 @@
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C74" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -2697,10 +2757,10 @@
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C75" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2708,10 +2768,10 @@
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C76" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2719,10 +2779,10 @@
         <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C77" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2730,10 +2790,10 @@
         <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C78" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2741,10 +2801,10 @@
         <v>80</v>
       </c>
       <c r="B79" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C79" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2752,10 +2812,10 @@
         <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C80" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2763,10 +2823,10 @@
         <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C81" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2774,10 +2834,10 @@
         <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C82" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2785,10 +2845,10 @@
         <v>84</v>
       </c>
       <c r="B83" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C83" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2796,10 +2856,10 @@
         <v>85</v>
       </c>
       <c r="B84" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C84" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2807,7 +2867,7 @@
         <v>86</v>
       </c>
       <c r="B85" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C85" t="s">
         <v>309</v>
@@ -2818,10 +2878,10 @@
         <v>87</v>
       </c>
       <c r="B86" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C86" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2829,10 +2889,10 @@
         <v>88</v>
       </c>
       <c r="B87" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C87" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2840,10 +2900,10 @@
         <v>89</v>
       </c>
       <c r="B88" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C88" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2851,10 +2911,10 @@
         <v>90</v>
       </c>
       <c r="B89" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C89" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2862,10 +2922,10 @@
         <v>91</v>
       </c>
       <c r="B90" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C90" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2873,10 +2933,10 @@
         <v>92</v>
       </c>
       <c r="B91" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C91" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2884,10 +2944,10 @@
         <v>93</v>
       </c>
       <c r="B92" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C92" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2895,10 +2955,10 @@
         <v>94</v>
       </c>
       <c r="B93" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C93" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2906,10 +2966,10 @@
         <v>95</v>
       </c>
       <c r="B94" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C94" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2917,10 +2977,10 @@
         <v>96</v>
       </c>
       <c r="B95" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C95" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2928,10 +2988,10 @@
         <v>97</v>
       </c>
       <c r="B96" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C96" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2939,10 +2999,10 @@
         <v>98</v>
       </c>
       <c r="B97" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C97" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2950,10 +3010,10 @@
         <v>99</v>
       </c>
       <c r="B98" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C98" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2961,7 +3021,7 @@
         <v>100</v>
       </c>
       <c r="B99" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C99" t="s">
         <v>313</v>
@@ -2972,10 +3032,10 @@
         <v>101</v>
       </c>
       <c r="B100" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C100" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2983,7 +3043,7 @@
         <v>102</v>
       </c>
       <c r="B101" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C101" t="s">
         <v>314</v>
@@ -2994,10 +3054,10 @@
         <v>103</v>
       </c>
       <c r="B102" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C102" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -3005,10 +3065,10 @@
         <v>104</v>
       </c>
       <c r="B103" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C103" t="s">
-        <v>287</v>
+        <v>316</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -3016,10 +3076,10 @@
         <v>105</v>
       </c>
       <c r="B104" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C104" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -3027,7 +3087,7 @@
         <v>106</v>
       </c>
       <c r="B105" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C105" t="s">
         <v>316</v>
@@ -3038,10 +3098,10 @@
         <v>107</v>
       </c>
       <c r="B106" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C106" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -3049,7 +3109,7 @@
         <v>108</v>
       </c>
       <c r="B107" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C107" t="s">
         <v>318</v>
@@ -3060,10 +3120,10 @@
         <v>109</v>
       </c>
       <c r="B108" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C108" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -3071,10 +3131,10 @@
         <v>110</v>
       </c>
       <c r="B109" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C109" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -3082,10 +3142,10 @@
         <v>111</v>
       </c>
       <c r="B110" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C110" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -3093,10 +3153,10 @@
         <v>112</v>
       </c>
       <c r="B111" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C111" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -3104,10 +3164,10 @@
         <v>113</v>
       </c>
       <c r="B112" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C112" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -3115,10 +3175,10 @@
         <v>114</v>
       </c>
       <c r="B113" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C113" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -3126,10 +3186,10 @@
         <v>115</v>
       </c>
       <c r="B114" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C114" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -3137,10 +3197,10 @@
         <v>116</v>
       </c>
       <c r="B115" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C115" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -3148,10 +3208,10 @@
         <v>117</v>
       </c>
       <c r="B116" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C116" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -3159,10 +3219,10 @@
         <v>118</v>
       </c>
       <c r="B117" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C117" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -3170,10 +3230,10 @@
         <v>119</v>
       </c>
       <c r="B118" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C118" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -3181,10 +3241,10 @@
         <v>120</v>
       </c>
       <c r="B119" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C119" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -3192,10 +3252,10 @@
         <v>121</v>
       </c>
       <c r="B120" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C120" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -3203,10 +3263,10 @@
         <v>122</v>
       </c>
       <c r="B121" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C121" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -3214,7 +3274,7 @@
         <v>123</v>
       </c>
       <c r="B122" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C122" t="s">
         <v>320</v>
@@ -3225,10 +3285,10 @@
         <v>124</v>
       </c>
       <c r="B123" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C123" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -3236,10 +3296,10 @@
         <v>125</v>
       </c>
       <c r="B124" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C124" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -3247,10 +3307,10 @@
         <v>126</v>
       </c>
       <c r="B125" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C125" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -3258,10 +3318,10 @@
         <v>127</v>
       </c>
       <c r="B126" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C126" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -3269,7 +3329,7 @@
         <v>128</v>
       </c>
       <c r="B127" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C127" t="s">
         <v>323</v>
@@ -3280,10 +3340,10 @@
         <v>129</v>
       </c>
       <c r="B128" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C128" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -3291,7 +3351,7 @@
         <v>130</v>
       </c>
       <c r="B129" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C129" t="s">
         <v>324</v>
@@ -3302,7 +3362,7 @@
         <v>131</v>
       </c>
       <c r="B130" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C130" t="s">
         <v>324</v>
@@ -3313,10 +3373,10 @@
         <v>132</v>
       </c>
       <c r="B131" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C131" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -3324,10 +3384,10 @@
         <v>133</v>
       </c>
       <c r="B132" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C132" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -3335,10 +3395,10 @@
         <v>134</v>
       </c>
       <c r="B133" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C133" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -3346,7 +3406,7 @@
         <v>135</v>
       </c>
       <c r="B134" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C134" t="s">
         <v>325</v>
@@ -3357,7 +3417,7 @@
         <v>136</v>
       </c>
       <c r="B135" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C135" t="s">
         <v>325</v>
@@ -3368,7 +3428,7 @@
         <v>137</v>
       </c>
       <c r="B136" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C136" t="s">
         <v>325</v>
@@ -3379,10 +3439,10 @@
         <v>138</v>
       </c>
       <c r="B137" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C137" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -3390,10 +3450,10 @@
         <v>139</v>
       </c>
       <c r="B138" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C138" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -3401,7 +3461,7 @@
         <v>140</v>
       </c>
       <c r="B139" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C139" t="s">
         <v>326</v>
@@ -3412,10 +3472,10 @@
         <v>141</v>
       </c>
       <c r="B140" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C140" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -3423,10 +3483,10 @@
         <v>142</v>
       </c>
       <c r="B141" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C141" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -3434,7 +3494,7 @@
         <v>143</v>
       </c>
       <c r="B142" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C142" t="s">
         <v>327</v>
@@ -3448,7 +3508,7 @@
         <v>46</v>
       </c>
       <c r="C143" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -3456,10 +3516,10 @@
         <v>145</v>
       </c>
       <c r="B144" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C144" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -3467,10 +3527,10 @@
         <v>146</v>
       </c>
       <c r="B145" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C145" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -3481,7 +3541,7 @@
         <v>46</v>
       </c>
       <c r="C146" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -3489,7 +3549,7 @@
         <v>148</v>
       </c>
       <c r="B147" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C147" t="s">
         <v>328</v>
@@ -3500,10 +3560,10 @@
         <v>149</v>
       </c>
       <c r="B148" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C148" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -3511,10 +3571,10 @@
         <v>150</v>
       </c>
       <c r="B149" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C149" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -3522,7 +3582,7 @@
         <v>151</v>
       </c>
       <c r="B150" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C150" t="s">
         <v>329</v>
@@ -3533,10 +3593,10 @@
         <v>152</v>
       </c>
       <c r="B151" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C151" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -3544,7 +3604,7 @@
         <v>153</v>
       </c>
       <c r="B152" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C152" t="s">
         <v>330</v>
@@ -3555,10 +3615,10 @@
         <v>154</v>
       </c>
       <c r="B153" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C153" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -3566,10 +3626,10 @@
         <v>155</v>
       </c>
       <c r="B154" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C154" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -3577,7 +3637,7 @@
         <v>156</v>
       </c>
       <c r="B155" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C155" t="s">
         <v>331</v>
@@ -3588,10 +3648,10 @@
         <v>157</v>
       </c>
       <c r="B156" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C156" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -3599,10 +3659,10 @@
         <v>158</v>
       </c>
       <c r="B157" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="C157" t="s">
-        <v>288</v>
+        <v>332</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -3610,10 +3670,10 @@
         <v>159</v>
       </c>
       <c r="B158" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="C158" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -3621,10 +3681,10 @@
         <v>160</v>
       </c>
       <c r="B159" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C159" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -3632,10 +3692,10 @@
         <v>161</v>
       </c>
       <c r="B160" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="C160" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -3643,7 +3703,7 @@
         <v>162</v>
       </c>
       <c r="B161" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="C161" t="s">
         <v>333</v>
@@ -3654,10 +3714,10 @@
         <v>163</v>
       </c>
       <c r="B162" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="C162" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -3665,10 +3725,10 @@
         <v>164</v>
       </c>
       <c r="B163" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C163" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -3679,7 +3739,7 @@
         <v>257</v>
       </c>
       <c r="C164" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -3687,10 +3747,10 @@
         <v>166</v>
       </c>
       <c r="B165" t="s">
-        <v>258</v>
+        <v>46</v>
       </c>
       <c r="C165" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -3698,10 +3758,10 @@
         <v>167</v>
       </c>
       <c r="B166" t="s">
-        <v>46</v>
+        <v>253</v>
       </c>
       <c r="C166" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -3709,10 +3769,10 @@
         <v>168</v>
       </c>
       <c r="B167" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C167" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -3720,10 +3780,10 @@
         <v>169</v>
       </c>
       <c r="B168" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C168" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -3731,10 +3791,10 @@
         <v>170</v>
       </c>
       <c r="B169" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="C169" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -3742,10 +3802,10 @@
         <v>171</v>
       </c>
       <c r="B170" t="s">
-        <v>256</v>
+        <v>46</v>
       </c>
       <c r="C170" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -3753,10 +3813,10 @@
         <v>172</v>
       </c>
       <c r="B171" t="s">
-        <v>46</v>
+        <v>250</v>
       </c>
       <c r="C171" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -3764,10 +3824,10 @@
         <v>173</v>
       </c>
       <c r="B172" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="C172" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -3775,10 +3835,10 @@
         <v>174</v>
       </c>
       <c r="B173" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="C173" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -3797,7 +3857,7 @@
         <v>176</v>
       </c>
       <c r="B175" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C175" t="s">
         <v>336</v>
@@ -3808,10 +3868,10 @@
         <v>177</v>
       </c>
       <c r="B176" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="C176" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -3819,10 +3879,10 @@
         <v>178</v>
       </c>
       <c r="B177" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="C177" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -3830,7 +3890,7 @@
         <v>179</v>
       </c>
       <c r="B178" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C178" t="s">
         <v>337</v>
@@ -3841,7 +3901,7 @@
         <v>180</v>
       </c>
       <c r="B179" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="C179" t="s">
         <v>337</v>
@@ -3852,10 +3912,10 @@
         <v>181</v>
       </c>
       <c r="B180" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="C180" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -3863,7 +3923,7 @@
         <v>182</v>
       </c>
       <c r="B181" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C181" t="s">
         <v>338</v>
@@ -3874,7 +3934,7 @@
         <v>183</v>
       </c>
       <c r="B182" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C182" t="s">
         <v>338</v>
@@ -3885,10 +3945,10 @@
         <v>184</v>
       </c>
       <c r="B183" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="C183" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -3896,10 +3956,10 @@
         <v>185</v>
       </c>
       <c r="B184" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C184" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -3907,7 +3967,7 @@
         <v>186</v>
       </c>
       <c r="B185" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C185" t="s">
         <v>339</v>
@@ -3918,7 +3978,7 @@
         <v>187</v>
       </c>
       <c r="B186" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C186" t="s">
         <v>339</v>
@@ -3929,10 +3989,10 @@
         <v>188</v>
       </c>
       <c r="B187" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C187" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -3940,10 +4000,10 @@
         <v>189</v>
       </c>
       <c r="B188" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C188" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -3951,10 +4011,10 @@
         <v>190</v>
       </c>
       <c r="B189" t="s">
-        <v>249</v>
+        <v>46</v>
       </c>
       <c r="C189" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -3962,10 +4022,10 @@
         <v>191</v>
       </c>
       <c r="B190" t="s">
-        <v>46</v>
+        <v>254</v>
       </c>
       <c r="C190" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -3973,10 +4033,10 @@
         <v>192</v>
       </c>
       <c r="B191" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C191" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -3984,7 +4044,7 @@
         <v>193</v>
       </c>
       <c r="B192" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C192" t="s">
         <v>340</v>
@@ -3995,10 +4055,10 @@
         <v>194</v>
       </c>
       <c r="B193" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C193" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -4006,10 +4066,10 @@
         <v>195</v>
       </c>
       <c r="B194" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="C194" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -4017,10 +4077,10 @@
         <v>196</v>
       </c>
       <c r="B195" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C195" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -4028,10 +4088,10 @@
         <v>197</v>
       </c>
       <c r="B196" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C196" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -4042,7 +4102,7 @@
         <v>253</v>
       </c>
       <c r="C197" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -4050,10 +4110,10 @@
         <v>199</v>
       </c>
       <c r="B198" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="C198" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -4061,7 +4121,7 @@
         <v>200</v>
       </c>
       <c r="B199" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="C199" t="s">
         <v>342</v>
@@ -4072,10 +4132,10 @@
         <v>201</v>
       </c>
       <c r="B200" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C200" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -4083,7 +4143,7 @@
         <v>202</v>
       </c>
       <c r="B201" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C201" t="s">
         <v>343</v>
@@ -4094,10 +4154,10 @@
         <v>203</v>
       </c>
       <c r="B202" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C202" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -4105,10 +4165,10 @@
         <v>204</v>
       </c>
       <c r="B203" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="C203" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -4116,10 +4176,10 @@
         <v>205</v>
       </c>
       <c r="B204" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C204" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -4127,10 +4187,10 @@
         <v>206</v>
       </c>
       <c r="B205" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C205" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -4138,7 +4198,7 @@
         <v>207</v>
       </c>
       <c r="B206" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C206" t="s">
         <v>345</v>
@@ -4149,7 +4209,7 @@
         <v>208</v>
       </c>
       <c r="B207" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C207" t="s">
         <v>346</v>
@@ -4160,7 +4220,7 @@
         <v>209</v>
       </c>
       <c r="B208" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C208" t="s">
         <v>346</v>
@@ -4171,10 +4231,10 @@
         <v>210</v>
       </c>
       <c r="B209" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="C209" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -4182,10 +4242,10 @@
         <v>211</v>
       </c>
       <c r="B210" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="C210" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -4193,7 +4253,7 @@
         <v>212</v>
       </c>
       <c r="B211" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="C211" t="s">
         <v>347</v>
@@ -4204,10 +4264,10 @@
         <v>213</v>
       </c>
       <c r="B212" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C212" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -4215,10 +4275,10 @@
         <v>214</v>
       </c>
       <c r="B213" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C213" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -4226,10 +4286,10 @@
         <v>215</v>
       </c>
       <c r="B214" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="C214" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -4237,10 +4297,10 @@
         <v>216</v>
       </c>
       <c r="B215" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C215" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -4248,10 +4308,10 @@
         <v>217</v>
       </c>
       <c r="B216" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C216" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -4259,10 +4319,10 @@
         <v>218</v>
       </c>
       <c r="B217" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C217" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -4270,10 +4330,10 @@
         <v>219</v>
       </c>
       <c r="B218" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C218" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -4281,7 +4341,7 @@
         <v>220</v>
       </c>
       <c r="B219" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C219" t="s">
         <v>352</v>
@@ -4292,7 +4352,7 @@
         <v>221</v>
       </c>
       <c r="B220" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C220" t="s">
         <v>352</v>
@@ -4303,10 +4363,10 @@
         <v>222</v>
       </c>
       <c r="B221" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C221" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -4314,10 +4374,10 @@
         <v>223</v>
       </c>
       <c r="B222" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C222" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -4325,10 +4385,10 @@
         <v>224</v>
       </c>
       <c r="B223" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C223" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -4336,10 +4396,10 @@
         <v>225</v>
       </c>
       <c r="B224" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="C224" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -4347,10 +4407,10 @@
         <v>226</v>
       </c>
       <c r="B225" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C225" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -4358,10 +4418,10 @@
         <v>227</v>
       </c>
       <c r="B226" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C226" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -4369,10 +4429,10 @@
         <v>228</v>
       </c>
       <c r="B227" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C227" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -4380,7 +4440,7 @@
         <v>229</v>
       </c>
       <c r="B228" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C228" t="s">
         <v>356</v>
@@ -4391,7 +4451,7 @@
         <v>230</v>
       </c>
       <c r="B229" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="C229" t="s">
         <v>356</v>
@@ -4402,7 +4462,7 @@
         <v>231</v>
       </c>
       <c r="B230" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C230" t="s">
         <v>357</v>
@@ -4413,7 +4473,7 @@
         <v>232</v>
       </c>
       <c r="B231" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="C231" t="s">
         <v>357</v>
@@ -4424,7 +4484,7 @@
         <v>233</v>
       </c>
       <c r="B232" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="C232" t="s">
         <v>357</v>
@@ -4435,7 +4495,7 @@
         <v>234</v>
       </c>
       <c r="B233" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="C233" t="s">
         <v>357</v>
@@ -4446,7 +4506,7 @@
         <v>235</v>
       </c>
       <c r="B234" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C234" t="s">
         <v>358</v>
@@ -4457,7 +4517,7 @@
         <v>236</v>
       </c>
       <c r="B235" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C235" t="s">
         <v>358</v>
@@ -4468,7 +4528,7 @@
         <v>237</v>
       </c>
       <c r="B236" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C236" t="s">
         <v>358</v>
@@ -4479,7 +4539,7 @@
         <v>238</v>
       </c>
       <c r="B237" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="C237" t="s">
         <v>358</v>
@@ -4490,10 +4550,10 @@
         <v>239</v>
       </c>
       <c r="B238" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C238" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -4501,10 +4561,10 @@
         <v>240</v>
       </c>
       <c r="B239" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="C239" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -4512,10 +4572,10 @@
         <v>241</v>
       </c>
       <c r="B240" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C240" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -4523,21 +4583,15 @@
         <v>242</v>
       </c>
       <c r="B241" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="C241" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="242" spans="1:3">
-      <c r="A242" t="s">
-        <v>243</v>
-      </c>
-      <c r="B242" t="s">
-        <v>258</v>
-      </c>
       <c r="C242" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -4547,7 +4601,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4555,562 +4609,650 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B2" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="C2" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="D2" t="s">
-        <v>468</v>
+        <v>482</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>365</v>
-      </c>
-      <c r="B3" t="s">
-        <v>404</v>
+        <v>366</v>
       </c>
       <c r="C3" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="D3" t="s">
-        <v>469</v>
+        <v>483</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B4" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="C4" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="D4" t="s">
-        <v>470</v>
+        <v>484</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B5" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="C5" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="D5" t="s">
-        <v>471</v>
+        <v>485</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B6" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="C6" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="D6" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>369</v>
-      </c>
-      <c r="B7" t="s">
-        <v>404</v>
+        <v>370</v>
       </c>
       <c r="C7" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="D7" t="s">
-        <v>473</v>
+        <v>487</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B8" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="C8" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="D8" t="s">
-        <v>474</v>
+        <v>488</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B9" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="C9" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="D9" t="s">
-        <v>468</v>
+        <v>489</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B10" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="C10" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="D10" t="s">
-        <v>475</v>
+        <v>490</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B11" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="C11" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="D11" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B12" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="C12" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="D12" t="s">
-        <v>477</v>
+        <v>491</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B13" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="C13" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="D13" t="s">
-        <v>478</v>
+        <v>492</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B14" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="C14" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="D14" t="s">
-        <v>468</v>
+        <v>493</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>377</v>
-      </c>
-      <c r="B15" t="s">
-        <v>414</v>
+        <v>378</v>
       </c>
       <c r="C15" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="D15" t="s">
-        <v>479</v>
+        <v>494</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B16" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="C16" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="D16" t="s">
-        <v>480</v>
+        <v>495</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B17" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="C17" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="D17" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B18" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="C18" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="D18" t="s">
-        <v>482</v>
+        <v>496</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B19" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="C19" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="D19" t="s">
-        <v>483</v>
+        <v>497</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B20" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="C20" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="D20" t="s">
-        <v>484</v>
+        <v>498</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B21" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="C21" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="D21" t="s">
-        <v>451</v>
+        <v>499</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>384</v>
-      </c>
-      <c r="B22" t="s">
-        <v>420</v>
+        <v>385</v>
       </c>
       <c r="C22" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="D22" t="s">
-        <v>485</v>
+        <v>500</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B23" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="C23" t="s">
-        <v>442</v>
+        <v>461</v>
       </c>
       <c r="D23" t="s">
-        <v>468</v>
+        <v>501</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>386</v>
-      </c>
-      <c r="B24" t="s">
-        <v>422</v>
+        <v>387</v>
       </c>
       <c r="C24" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="D24" t="s">
-        <v>486</v>
+        <v>502</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B25" t="s">
-        <v>404</v>
+        <v>425</v>
       </c>
       <c r="C25" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="D25" t="s">
-        <v>468</v>
+        <v>503</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B26" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="C26" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="D26" t="s">
-        <v>487</v>
+        <v>465</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B27" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="C27" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="D27" t="s">
-        <v>488</v>
+        <v>504</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B28" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="C28" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D28" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>391</v>
-      </c>
-      <c r="B29" t="s">
-        <v>426</v>
+        <v>392</v>
       </c>
       <c r="C29" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D29" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B30" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="C30" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="D30" t="s">
-        <v>491</v>
+        <v>505</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B31" t="s">
-        <v>407</v>
+        <v>422</v>
       </c>
       <c r="C31" t="s">
-        <v>460</v>
-      </c>
-      <c r="D31" t="s">
-        <v>492</v>
+        <v>462</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B32" t="s">
-        <v>428</v>
-      </c>
-      <c r="C32" t="s">
-        <v>461</v>
+        <v>432</v>
       </c>
       <c r="D32" t="s">
-        <v>468</v>
+        <v>506</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B33" t="s">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="C33" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="D33" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B34" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="C34" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="D34" t="s">
-        <v>477</v>
+        <v>507</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B35" t="s">
-        <v>413</v>
+        <v>434</v>
       </c>
       <c r="C35" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="D35" t="s">
-        <v>494</v>
+        <v>508</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B36" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="C36" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="D36" t="s">
-        <v>495</v>
+        <v>509</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B37" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="C37" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="D37" t="s">
-        <v>496</v>
+        <v>510</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B38" t="s">
-        <v>416</v>
+        <v>437</v>
       </c>
       <c r="C38" t="s">
-        <v>448</v>
+        <v>473</v>
       </c>
       <c r="D38" t="s">
-        <v>497</v>
+        <v>511</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B39" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C39" t="s">
-        <v>442</v>
+        <v>474</v>
       </c>
       <c r="D39" t="s">
-        <v>498</v>
+        <v>512</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B40" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="C40" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="D40" t="s">
-        <v>499</v>
+        <v>482</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>404</v>
+      </c>
+      <c r="B41" t="s">
+        <v>439</v>
+      </c>
+      <c r="C41" t="s">
+        <v>476</v>
+      </c>
+      <c r="D41" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>405</v>
+      </c>
+      <c r="B42" t="s">
+        <v>440</v>
+      </c>
+      <c r="C42" t="s">
+        <v>477</v>
+      </c>
+      <c r="D42" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>406</v>
+      </c>
+      <c r="B43" t="s">
+        <v>422</v>
+      </c>
+      <c r="C43" t="s">
+        <v>478</v>
+      </c>
+      <c r="D43" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>407</v>
+      </c>
+      <c r="B44" t="s">
+        <v>441</v>
+      </c>
+      <c r="C44" t="s">
+        <v>479</v>
+      </c>
+      <c r="D44" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>408</v>
+      </c>
+      <c r="B45" t="s">
+        <v>427</v>
+      </c>
+      <c r="C45" t="s">
+        <v>480</v>
+      </c>
+      <c r="D45" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>409</v>
+      </c>
+      <c r="B46" t="s">
+        <v>425</v>
+      </c>
+      <c r="C46" t="s">
+        <v>461</v>
+      </c>
+      <c r="D46" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>410</v>
+      </c>
+      <c r="B47" t="s">
+        <v>428</v>
+      </c>
+      <c r="C47" t="s">
+        <v>454</v>
+      </c>
+      <c r="D47" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>411</v>
+      </c>
+      <c r="B48" t="s">
+        <v>442</v>
+      </c>
+      <c r="C48" t="s">
+        <v>481</v>
+      </c>
+      <c r="D48" t="s">
+        <v>519</v>
       </c>
     </row>
   </sheetData>

--- a/data/download/Competences-Map-Dataset.xlsx
+++ b/data/download/Competences-Map-Dataset.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="493">
   <si>
     <t>Skills</t>
   </si>
@@ -26,781 +26,661 @@
     <t>Projects</t>
   </si>
   <si>
-    <t>(Digital) Content design</t>
-  </si>
-  <si>
-    <t>Administrative coordination</t>
-  </si>
-  <si>
-    <t>Human translation</t>
-  </si>
-  <si>
-    <t>Operational project management coordination</t>
+    <t>Digital Content Design</t>
+  </si>
+  <si>
+    <t>Administration</t>
+  </si>
+  <si>
+    <t>Cultural Preservation Strategy</t>
+  </si>
+  <si>
+    <t>Public Relations &amp; Partnerships</t>
+  </si>
+  <si>
+    <t>Strategic Leadership</t>
+  </si>
+  <si>
+    <t>Creative Direction</t>
+  </si>
+  <si>
+    <t>Graphic Design</t>
+  </si>
+  <si>
+    <t>Documentation Research</t>
+  </si>
+  <si>
+    <t>Photography</t>
+  </si>
+  <si>
+    <t>Sales Strategy</t>
+  </si>
+  <si>
+    <t>UX/UI Design</t>
+  </si>
+  <si>
+    <t>Art Direction</t>
+  </si>
+  <si>
+    <t>Audio/Sound Design</t>
+  </si>
+  <si>
+    <t>Business Development</t>
+  </si>
+  <si>
+    <t>Concept Art</t>
+  </si>
+  <si>
+    <t>Game Development</t>
+  </si>
+  <si>
+    <t>Lighting Design</t>
+  </si>
+  <si>
+    <t>Ethnographic Research</t>
+  </si>
+  <si>
+    <t>Participatory Production</t>
+  </si>
+  <si>
+    <t>Typeface Design</t>
+  </si>
+  <si>
+    <t>Copywriting</t>
+  </si>
+  <si>
+    <t>Creative Coordination</t>
+  </si>
+  <si>
+    <t>Concept Ideation &amp; Dev.</t>
+  </si>
+  <si>
+    <t>Cross-Platform Compatibility</t>
+  </si>
+  <si>
+    <t>Communication Strategy</t>
+  </si>
+  <si>
+    <t>Digital Content Curation</t>
+  </si>
+  <si>
+    <t>Digital Product Management</t>
+  </si>
+  <si>
+    <t>Rights &amp; Permissions Management</t>
+  </si>
+  <si>
+    <t>Unicode Integration</t>
+  </si>
+  <si>
+    <t>Animation</t>
+  </si>
+  <si>
+    <t>Physical Computing</t>
+  </si>
+  <si>
+    <t>Brand Management</t>
+  </si>
+  <si>
+    <t>Cinematography</t>
+  </si>
+  <si>
+    <t>Community Engagement</t>
+  </si>
+  <si>
+    <t>Team Leadership</t>
+  </si>
+  <si>
+    <t>Cultural Knowledge Transfer</t>
+  </si>
+  <si>
+    <t>Digital Illustration</t>
+  </si>
+  <si>
+    <t>Decision-making</t>
+  </si>
+  <si>
+    <t>Digital Media Handling</t>
+  </si>
+  <si>
+    <t>Musical Composition</t>
+  </si>
+  <si>
+    <t>Product Design</t>
+  </si>
+  <si>
+    <t>Project Coordination</t>
+  </si>
+  <si>
+    <t>Sociology</t>
+  </si>
+  <si>
+    <t>Video Production</t>
+  </si>
+  <si>
+    <t>Advocacy Management</t>
+  </si>
+  <si>
+    <t>AI/AR/VR Integration</t>
+  </si>
+  <si>
+    <t>AR Content Creation</t>
+  </si>
+  <si>
+    <t>Business Strategy</t>
+  </si>
+  <si>
+    <t>Client Relationship Management</t>
+  </si>
+  <si>
+    <t>Content Strategy</t>
+  </si>
+  <si>
+    <t>Global &amp; Local Marketing</t>
+  </si>
+  <si>
+    <t>Global Brand Leadership</t>
+  </si>
+  <si>
+    <t>IT Systems Development</t>
+  </si>
+  <si>
+    <t>Machine Learning</t>
+  </si>
+  <si>
+    <t>Technical Support</t>
   </si>
   <si>
     <t>Storytelling</t>
   </si>
   <si>
-    <t>Creative project leadership</t>
-  </si>
-  <si>
-    <t>Graphic design</t>
-  </si>
-  <si>
-    <t>Photo and media handling</t>
-  </si>
-  <si>
-    <t>Photo research</t>
-  </si>
-  <si>
-    <t>Rights &amp; permissions Management</t>
-  </si>
-  <si>
-    <t>UX / UI Design</t>
-  </si>
-  <si>
-    <t>Art direction</t>
-  </si>
-  <si>
-    <t>Audio / Sound design</t>
-  </si>
-  <si>
-    <t>Business development</t>
-  </si>
-  <si>
-    <t>Concept art</t>
-  </si>
-  <si>
-    <t>Game development</t>
-  </si>
-  <si>
-    <t>Lead game design</t>
-  </si>
-  <si>
-    <t>Lead game development</t>
-  </si>
-  <si>
-    <t>Cultural ethnographic research</t>
-  </si>
-  <si>
-    <t>Cultural preservation</t>
-  </si>
-  <si>
-    <t>Participatory design</t>
-  </si>
-  <si>
-    <t>Typeface design &amp; typography</t>
-  </si>
-  <si>
-    <t>Copywriting and script editing</t>
-  </si>
-  <si>
-    <t>Creative coordination</t>
-  </si>
-  <si>
-    <t>Creative ideation and concept development</t>
-  </si>
-  <si>
-    <t>Cross-platform design adaptation</t>
-  </si>
-  <si>
-    <t>Cultural communication strategy</t>
-  </si>
-  <si>
-    <t>Digital curation</t>
-  </si>
-  <si>
-    <t>Digital product management</t>
-  </si>
-  <si>
-    <t>Resource planning</t>
-  </si>
-  <si>
-    <t>Unicode integration</t>
-  </si>
-  <si>
-    <t>Animation</t>
-  </si>
-  <si>
-    <t>Photography</t>
-  </si>
-  <si>
-    <t>Brand management</t>
-  </si>
-  <si>
-    <t>Cinematography</t>
-  </si>
-  <si>
-    <t>Community and stakeholder engagement</t>
-  </si>
-  <si>
-    <t>Cross-functional team leadership</t>
-  </si>
-  <si>
-    <t>Cultural knowledge transfer</t>
-  </si>
-  <si>
-    <t>Digital illustration and visual asset creation</t>
-  </si>
-  <si>
-    <t>Executive decision-making</t>
-  </si>
-  <si>
-    <t>ICH safeguarding</t>
-  </si>
-  <si>
-    <t>Music performance (traditional songs)</t>
-  </si>
-  <si>
-    <t>PR and media relations</t>
+    <t>Game Programming</t>
+  </si>
+  <si>
+    <t>Cultural Mediation</t>
+  </si>
+  <si>
+    <t>Kinematic Analysis &amp; Evaluation</t>
+  </si>
+  <si>
+    <t>Advertising Management</t>
+  </si>
+  <si>
+    <t>Campaign Coordination</t>
+  </si>
+  <si>
+    <t>3D Modeling</t>
+  </si>
+  <si>
+    <t>Cross-Cultural Storytelling</t>
+  </si>
+  <si>
+    <t>Gaming Skins Design</t>
+  </si>
+  <si>
+    <t>Fashion Design</t>
+  </si>
+  <si>
+    <t>Motion Graphics</t>
+  </si>
+  <si>
+    <t>Coding</t>
+  </si>
+  <si>
+    <t>Olfactory Heritage Documentation</t>
+  </si>
+  <si>
+    <t>Stage Spatial Design</t>
+  </si>
+  <si>
+    <t>Branding</t>
+  </si>
+  <si>
+    <t>Ceramic Making</t>
+  </si>
+  <si>
+    <t>Co-Design Facilitation</t>
+  </si>
+  <si>
+    <t>3D Printing</t>
+  </si>
+  <si>
+    <t>Digital Fabrication</t>
+  </si>
+  <si>
+    <t>Exhibition Design</t>
+  </si>
+  <si>
+    <t>Production Planning</t>
+  </si>
+  <si>
+    <t>Community Impact Evaluation</t>
+  </si>
+  <si>
+    <t>On-site Experience Coordination</t>
+  </si>
+  <si>
+    <t>Audio/Sound Recording</t>
+  </si>
+  <si>
+    <t>Traditional Costume Knowledge</t>
+  </si>
+  <si>
+    <t>Heritage Expertise</t>
+  </si>
+  <si>
+    <t>Dance Documentation</t>
+  </si>
+  <si>
+    <t>Dance Performance Recording</t>
+  </si>
+  <si>
+    <t>Data Archiving &amp; Retrieval</t>
+  </si>
+  <si>
+    <t>Data Post-Processing</t>
+  </si>
+  <si>
+    <t>Database Information Management</t>
+  </si>
+  <si>
+    <t>Folk Dance Knowledge</t>
+  </si>
+  <si>
+    <t>Historical &amp; Literary Research</t>
+  </si>
+  <si>
+    <t>Interaction Design</t>
+  </si>
+  <si>
+    <t>Microencapsulation</t>
+  </si>
+  <si>
+    <t>Motion Capture Data Acquisition</t>
+  </si>
+  <si>
+    <t>Resource Planning</t>
+  </si>
+  <si>
+    <t>Web Development</t>
+  </si>
+  <si>
+    <t>Deep Neural Networks</t>
+  </si>
+  <si>
+    <t>AI System Dev.</t>
+  </si>
+  <si>
+    <t>Computational Statistics</t>
+  </si>
+  <si>
+    <t>Entrepreneurship</t>
+  </si>
+  <si>
+    <t>Machine Translation</t>
+  </si>
+  <si>
+    <t>Language Technology</t>
+  </si>
+  <si>
+    <t>Marketing Strategy</t>
+  </si>
+  <si>
+    <t>Data Analysis</t>
+  </si>
+  <si>
+    <t>Speech Synthesis</t>
+  </si>
+  <si>
+    <t>Sponsorship</t>
+  </si>
+  <si>
+    <t>Archaeology</t>
+  </si>
+  <si>
+    <t>Computer Engineering</t>
+  </si>
+  <si>
+    <t>Cultural Anthropology</t>
+  </si>
+  <si>
+    <t>Folklore Studies</t>
+  </si>
+  <si>
+    <t>Language/Style Checking</t>
+  </si>
+  <si>
+    <t>Immersive Sound Design</t>
+  </si>
+  <si>
+    <t>Knowledge Graphs</t>
+  </si>
+  <si>
+    <t>Software Development</t>
+  </si>
+  <si>
+    <t>Wood Science</t>
+  </si>
+  <si>
+    <t>Audio/Sound Post-production</t>
+  </si>
+  <si>
+    <t>Social Agents Simulation</t>
+  </si>
+  <si>
+    <t>Architectural Analysis</t>
+  </si>
+  <si>
+    <t>Musical Performance</t>
+  </si>
+  <si>
+    <t>Computer Vision</t>
+  </si>
+  <si>
+    <t>Data Collection</t>
+  </si>
+  <si>
+    <t>Exhibit Fabrication</t>
+  </si>
+  <si>
+    <t>NFT Asset Management</t>
+  </si>
+  <si>
+    <t>Scriptwriting &amp; Narrative Adaptation</t>
+  </si>
+  <si>
+    <t>Digital Musicology</t>
+  </si>
+  <si>
+    <t>Music Production</t>
+  </si>
+  <si>
+    <t>Backstage Management</t>
+  </si>
+  <si>
+    <t>Budget Management</t>
+  </si>
+  <si>
+    <t>Logistics Management</t>
+  </si>
+  <si>
+    <t>Operational Project Management</t>
+  </si>
+  <si>
+    <t>Promotion</t>
+  </si>
+  <si>
+    <t>Stakeholder Alignment</t>
+  </si>
+  <si>
+    <t>Cultural Event Organization</t>
+  </si>
+  <si>
+    <t>Cultural Policy</t>
+  </si>
+  <si>
+    <t>Historical Site Management</t>
+  </si>
+  <si>
+    <t>Interactive Installation</t>
+  </si>
+  <si>
+    <t>Interactive Media</t>
+  </si>
+  <si>
+    <t>Winemaking</t>
+  </si>
+  <si>
+    <t>Computer Graphics</t>
+  </si>
+  <si>
+    <t>Digital Musical Composition</t>
+  </si>
+  <si>
+    <t>Museum Spatial Planning</t>
+  </si>
+  <si>
+    <t>Workflow Management</t>
+  </si>
+  <si>
+    <t>Facilitation</t>
+  </si>
+  <si>
+    <t>Voiceover</t>
+  </si>
+  <si>
+    <t>System Architecture Design</t>
+  </si>
+  <si>
+    <t>Participatory Design</t>
+  </si>
+  <si>
+    <t>Platform Mainteinance</t>
+  </si>
+  <si>
+    <t>Project Management</t>
+  </si>
+  <si>
+    <t>Sourcing &amp; Licensing</t>
+  </si>
+  <si>
+    <t>Dance Choreography</t>
+  </si>
+  <si>
+    <t>Production Execution</t>
+  </si>
+  <si>
+    <t>Content curation</t>
+  </si>
+  <si>
+    <t>Natural Language Processing</t>
+  </si>
+  <si>
+    <t>Visual Art</t>
+  </si>
+  <si>
+    <t>Traditional Printing</t>
+  </si>
+  <si>
+    <t>Gamification design</t>
+  </si>
+  <si>
+    <t>Policy Analysis</t>
+  </si>
+  <si>
+    <t>Public Communication</t>
+  </si>
+  <si>
+    <t>Educational Content Dev.</t>
+  </si>
+  <si>
+    <t>Audio/Sound Editing</t>
+  </si>
+  <si>
+    <t>Traditional Ceramics Crafting</t>
+  </si>
+  <si>
+    <t>Metadata Structuring &amp; Organization</t>
+  </si>
+  <si>
+    <t>Ethics Critical Reflection</t>
+  </si>
+  <si>
+    <t>3D Scanning</t>
+  </si>
+  <si>
+    <t>Educational Program Dev.</t>
+  </si>
+  <si>
+    <t>Operational Support</t>
+  </si>
+  <si>
+    <t>Financial Reporting</t>
+  </si>
+  <si>
+    <t>Projection Mapping</t>
+  </si>
+  <si>
+    <t>Qualitative Research</t>
+  </si>
+  <si>
+    <t>Spatial Design</t>
+  </si>
+  <si>
+    <t>Traditional Weaving</t>
+  </si>
+  <si>
+    <t>User-Centered Design</t>
+  </si>
+  <si>
+    <t>Social Media Strategy</t>
+  </si>
+  <si>
+    <t>Audience Development</t>
+  </si>
+  <si>
+    <t>3D Integration</t>
+  </si>
+  <si>
+    <t>Pattern Design</t>
+  </si>
+  <si>
+    <t>Heritage Documentation</t>
+  </si>
+  <si>
+    <t>Historical Research</t>
+  </si>
+  <si>
+    <t>Audio-Visual Media Creation</t>
+  </si>
+  <si>
+    <t>Glassblowing</t>
+  </si>
+  <si>
+    <t>Space &amp; Product Design Integration</t>
+  </si>
+  <si>
+    <t>Textile Fabrication</t>
+  </si>
+  <si>
+    <t>Translation</t>
+  </si>
+  <si>
+    <t>App Design &amp; Dev.</t>
+  </si>
+  <si>
+    <t>Generative Design</t>
+  </si>
+  <si>
+    <t>Concept Design</t>
+  </si>
+  <si>
+    <t>Archival Research</t>
+  </si>
+  <si>
+    <t>Heritage Analysis</t>
+  </si>
+  <si>
+    <t>IT Systems Maintenance</t>
+  </si>
+  <si>
+    <t>Audio-Visual Post-Production</t>
+  </si>
+  <si>
+    <t>Audio/Sound Installation</t>
+  </si>
+  <si>
+    <t>Generative Agents Dev.</t>
+  </si>
+  <si>
+    <t>Audio-Visual System Installation</t>
+  </si>
+  <si>
+    <t>Game Design</t>
+  </si>
+  <si>
+    <t>Music Analysis</t>
+  </si>
+  <si>
+    <t>Archival Storytelling</t>
+  </si>
+  <si>
+    <t>Speech Recognition</t>
+  </si>
+  <si>
+    <t>Grant Acquisition</t>
+  </si>
+  <si>
+    <t>Cultural Advisory</t>
+  </si>
+  <si>
+    <t>Digital Marketing</t>
+  </si>
+  <si>
+    <t>Mentoring</t>
+  </si>
+  <si>
+    <t>Live Performance Logistics</t>
+  </si>
+  <si>
+    <t>Holographic Projection Design &amp; Dev.</t>
+  </si>
+  <si>
+    <t>Visual Design</t>
+  </si>
+  <si>
+    <t>Leadership</t>
+  </si>
+  <si>
+    <t>Research</t>
+  </si>
+  <si>
+    <t>Community / Stakeholders</t>
+  </si>
+  <si>
+    <t>Project ideation</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>Audio/Sound</t>
+  </si>
+  <si>
+    <t>Experience Design</t>
   </si>
   <si>
     <t>Project management</t>
   </si>
   <si>
-    <t>Social media strategy</t>
-  </si>
-  <si>
-    <t>Video Production</t>
-  </si>
-  <si>
-    <t>Advocacy management</t>
-  </si>
-  <si>
-    <t>AI/AR/VR development and integration for immersive experience</t>
-  </si>
-  <si>
-    <t>AR content creation</t>
-  </si>
-  <si>
-    <t>Business strategy</t>
-  </si>
-  <si>
-    <t>Client relationship management</t>
-  </si>
-  <si>
-    <t>Communication strategy</t>
-  </si>
-  <si>
-    <t>Content strategy</t>
-  </si>
-  <si>
-    <t>Global and local marketing</t>
-  </si>
-  <si>
-    <t>Global brand leadership</t>
-  </si>
-  <si>
-    <t>Interactive media development</t>
-  </si>
-  <si>
-    <t>Logistics and distribution management</t>
-  </si>
-  <si>
-    <t>Technical leadership</t>
-  </si>
-  <si>
-    <t>Visual storytelling</t>
-  </si>
-  <si>
-    <t>Game engine programming</t>
-  </si>
-  <si>
-    <t>Cultural mediation</t>
-  </si>
-  <si>
-    <t>Mobile app design and development</t>
-  </si>
-  <si>
-    <t>Advertising management</t>
-  </si>
-  <si>
-    <t>Campaign coordination</t>
-  </si>
-  <si>
-    <t>3D Design</t>
-  </si>
-  <si>
-    <t>3D Modeling</t>
-  </si>
-  <si>
-    <t>Cross-cultural storytelling</t>
-  </si>
-  <si>
-    <t>Digital skin design for gaming platforms</t>
-  </si>
-  <si>
-    <t>Fashion design</t>
-  </si>
-  <si>
-    <t>Motion design (2D/3D Animation &amp; Interaction)</t>
-  </si>
-  <si>
-    <t>Motion graphics (2D Animation &amp; Visual Storytelling)</t>
-  </si>
-  <si>
-    <t>Sales strategy</t>
-  </si>
-  <si>
-    <t>Sponsorship management</t>
-  </si>
-  <si>
-    <t>Visual identity and branding</t>
-  </si>
-  <si>
-    <t>Ceramic techniques</t>
-  </si>
-  <si>
-    <t>Co-design facilitation</t>
-  </si>
-  <si>
-    <t>3D Printing</t>
-  </si>
-  <si>
-    <t>Digital fabrication integration into ceramic production</t>
-  </si>
-  <si>
-    <t>Exhibition design</t>
-  </si>
-  <si>
-    <t>Product design</t>
-  </si>
-  <si>
-    <t>Artistic photographic documentation</t>
-  </si>
-  <si>
-    <t>Immersive sound design</t>
-  </si>
-  <si>
-    <t>NFT asset management</t>
-  </si>
-  <si>
-    <t>Audio / Sound recording and synchronization</t>
-  </si>
-  <si>
-    <t>Costume knowledge</t>
-  </si>
-  <si>
-    <t>Cross-platform compatibility</t>
-  </si>
-  <si>
-    <t>3D Asset optimization</t>
-  </si>
-  <si>
-    <t>Cultural heritage expertise</t>
-  </si>
-  <si>
-    <t>Dance documentation methodology</t>
-  </si>
-  <si>
-    <t>Dance performance recording</t>
-  </si>
-  <si>
-    <t>Data archiving and retrieval systems</t>
-  </si>
-  <si>
-    <t>Data post-processing skills</t>
-  </si>
-  <si>
-    <t>Database &amp; information management</t>
-  </si>
-  <si>
-    <t>Motion capture and movement data acquisition</t>
-  </si>
-  <si>
-    <t>Folk dance knowledge</t>
-  </si>
-  <si>
-    <t>Historical research</t>
-  </si>
-  <si>
-    <t>Integration of 3D viewers</t>
-  </si>
-  <si>
-    <t>Metadata structuring and organization</t>
-  </si>
-  <si>
-    <t>Motion analysis and kinematic evaluation</t>
-  </si>
-  <si>
-    <t>Research and data analysis</t>
-  </si>
-  <si>
-    <t>Web platform development</t>
-  </si>
-  <si>
-    <t>Deep Neural Networks</t>
-  </si>
-  <si>
-    <t>AI tool implementation</t>
-  </si>
-  <si>
-    <t>Computational Statistics</t>
-  </si>
-  <si>
-    <t>Entrepreneurship</t>
-  </si>
-  <si>
-    <t>Machine learning</t>
-  </si>
-  <si>
-    <t>Language and style checking</t>
-  </si>
-  <si>
-    <t>Machine translation</t>
-  </si>
-  <si>
-    <t>Reinforcement learning</t>
-  </si>
-  <si>
-    <t>Speech recognition</t>
-  </si>
-  <si>
-    <t>Speech synthesis</t>
-  </si>
-  <si>
-    <t>Archaeology</t>
-  </si>
-  <si>
-    <t>Computer Engineering</t>
-  </si>
-  <si>
-    <t>Cultural Anthropology</t>
-  </si>
-  <si>
-    <t>Folklore Studies</t>
-  </si>
-  <si>
-    <t>Korean Literature</t>
-  </si>
-  <si>
-    <t>Image engineering</t>
-  </si>
-  <si>
-    <t>Japanese literature</t>
-  </si>
-  <si>
-    <t>Sociology</t>
-  </si>
-  <si>
-    <t>Wood Applied Science</t>
-  </si>
-  <si>
-    <t>Audio / Sound post-production (mixing &amp; mastering)</t>
-  </si>
-  <si>
-    <t>Scriptwriting and narrative adaptation</t>
-  </si>
-  <si>
-    <t>Narrative and cultural content curation</t>
-  </si>
-  <si>
-    <t>Sound installation</t>
-  </si>
-  <si>
-    <t>Music and sound production</t>
-  </si>
-  <si>
-    <t>Post-Production</t>
-  </si>
-  <si>
-    <t>Aroma and smell research</t>
-  </si>
-  <si>
-    <t>Computer vision</t>
-  </si>
-  <si>
-    <t>Data collection</t>
-  </si>
-  <si>
-    <t>Language technology and digital humanities</t>
-  </si>
-  <si>
-    <t>Natural language processing and olfactory taxonomies</t>
-  </si>
-  <si>
-    <t>Scientific documentation and preservation of Olfactory Heritage</t>
-  </si>
-  <si>
-    <t>Digital musicology</t>
-  </si>
-  <si>
-    <t>Knowledge graph technologies / infrastructures</t>
-  </si>
-  <si>
-    <t>Knowledge graphs / Web Data Querying</t>
-  </si>
-  <si>
-    <t>Knowledge graphs and linked data</t>
-  </si>
-  <si>
-    <t>Music analysis</t>
-  </si>
-  <si>
-    <t>Participatory digital workflow production</t>
-  </si>
-  <si>
-    <t>Backstage and cue management</t>
-  </si>
-  <si>
-    <t>Budget and resource management</t>
-  </si>
-  <si>
-    <t>Business partnerships and sponsorship</t>
-  </si>
-  <si>
-    <t>Cross-departmental coordination</t>
-  </si>
-  <si>
-    <t>Lighting concept creation</t>
-  </si>
-  <si>
-    <t>Lighting design implementation training</t>
-  </si>
-  <si>
-    <t>Operational coordination of live performance logistics</t>
-  </si>
-  <si>
-    <t>Projection mapping design for immersive experience</t>
-  </si>
-  <si>
-    <t>Stage spatial and functional design</t>
-  </si>
-  <si>
-    <t>Cultural event organization</t>
-  </si>
-  <si>
-    <t>Cultural policy</t>
-  </si>
-  <si>
-    <t>Historical site management</t>
-  </si>
-  <si>
-    <t>Interaction design</t>
-  </si>
-  <si>
-    <t>Interactive Installations</t>
-  </si>
-  <si>
-    <t>Winemaking expertise</t>
-  </si>
-  <si>
-    <t>Computer graphic artist</t>
-  </si>
-  <si>
-    <t>Digital music composition and audio production for multimedia</t>
-  </si>
-  <si>
-    <t>AI system design</t>
-  </si>
-  <si>
-    <t>Multimedia programming</t>
-  </si>
-  <si>
-    <t>Design process and production workflow management</t>
-  </si>
-  <si>
-    <t>Facilitating intercultural collaboration</t>
-  </si>
-  <si>
-    <t>Narrative development and storytelling</t>
-  </si>
-  <si>
-    <t>Strategic leadership</t>
-  </si>
-  <si>
-    <t>Organizational leadership and partnership management</t>
-  </si>
-  <si>
-    <t>Physical space and product design integration</t>
-  </si>
-  <si>
-    <t>Production planning and execution</t>
-  </si>
-  <si>
-    <t>Stakeholder alignment</t>
-  </si>
-  <si>
-    <t>Technical architecture and platform integration</t>
-  </si>
-  <si>
-    <t>Archival material sourcing and content licensing</t>
-  </si>
-  <si>
-    <t>Dance choreography and movement direction</t>
-  </si>
-  <si>
-    <t>Production coordination and scheduling</t>
-  </si>
-  <si>
-    <t>Musical composition and live/recorded performance</t>
-  </si>
-  <si>
-    <t>Narrative voice performance</t>
-  </si>
-  <si>
-    <t>Visual art contributions (e.g., murals, graffiti integration)</t>
-  </si>
-  <si>
-    <t>Creative and operational leadership</t>
-  </si>
-  <si>
-    <t>Traditional ceramics crafting and production</t>
-  </si>
-  <si>
-    <t>Design  of language preservation strategies</t>
-  </si>
-  <si>
-    <t>Game-based learning tools development</t>
-  </si>
-  <si>
-    <t>Platform mainteinance</t>
-  </si>
-  <si>
-    <t>Promotion of events, competitions, and platform visibility</t>
-  </si>
-  <si>
-    <t>Design of language learning materials</t>
-  </si>
-  <si>
-    <t>Software interface development for pattern customization</t>
-  </si>
-  <si>
-    <t>Traditional bamboo weaving techniques</t>
-  </si>
-  <si>
-    <t>Archive management and metadata standards</t>
-  </si>
-  <si>
-    <t>Cataloguing and archival description</t>
-  </si>
-  <si>
-    <t>Critical reflection on archival theory and ethics</t>
-  </si>
-  <si>
-    <t>Digital scanning</t>
-  </si>
-  <si>
-    <t>Educational program development</t>
-  </si>
-  <si>
-    <t>Facilities management and operational support</t>
-  </si>
-  <si>
-    <t>Financial reporting</t>
-  </si>
-  <si>
-    <t>IT systems maintenance and server administration</t>
-  </si>
-  <si>
-    <t>Project scheduling and resource coordination</t>
-  </si>
-  <si>
-    <t>Public communication and outreach</t>
-  </si>
-  <si>
-    <t>Spatial and architectural documentation analysis</t>
-  </si>
-  <si>
-    <t>Technical support for equipment and software</t>
-  </si>
-  <si>
-    <t>User-centered design</t>
-  </si>
-  <si>
-    <t>Social analysis of urban history narratives</t>
-  </si>
-  <si>
-    <t>Audience development</t>
-  </si>
-  <si>
-    <t>Digital storytelling</t>
-  </si>
-  <si>
-    <t>Impact Evaluation</t>
-  </si>
-  <si>
-    <t>Mentoring and facilitation</t>
-  </si>
-  <si>
-    <t>Participatory project coordination</t>
-  </si>
-  <si>
-    <t>Cultural heritage documentation</t>
-  </si>
-  <si>
-    <t>Art historical interpretation</t>
-  </si>
-  <si>
-    <t>Audio-visual media creation</t>
-  </si>
-  <si>
-    <t>Glass sculpture design</t>
-  </si>
-  <si>
-    <t>Glassblowing expertise</t>
-  </si>
-  <si>
-    <t>Coding and programming</t>
-  </si>
-  <si>
-    <t>Physical computing</t>
-  </si>
-  <si>
-    <t>Digital textile production and fabrication</t>
-  </si>
-  <si>
-    <t>Pattern design and visual composition</t>
-  </si>
-  <si>
-    <t>Traditional Printing Techniques</t>
-  </si>
-  <si>
-    <t>Microencapsulation</t>
-  </si>
-  <si>
-    <t>Coding and generative design</t>
-  </si>
-  <si>
-    <t>Concept design</t>
-  </si>
-  <si>
-    <t>Archive research and development</t>
-  </si>
-  <si>
-    <t>Documentation research</t>
-  </si>
-  <si>
-    <t>Data analysis</t>
-  </si>
-  <si>
-    <t>End-to-end software development</t>
-  </si>
-  <si>
-    <t>Heritage analysis</t>
-  </si>
-  <si>
-    <t>IT infrastructure</t>
-  </si>
-  <si>
-    <t>Policy analysis</t>
-  </si>
-  <si>
-    <t>Qualitative research</t>
-  </si>
-  <si>
-    <t>Sound editing and manipulation</t>
-  </si>
-  <si>
-    <t>Social agents and multi-agent simulations</t>
-  </si>
-  <si>
-    <t>Generative agent-based models</t>
-  </si>
-  <si>
-    <t>AV systems installation</t>
-  </si>
-  <si>
-    <t>Educational content development</t>
-  </si>
-  <si>
-    <t>Lead exhibit fabrication</t>
-  </si>
-  <si>
-    <t>Museum spatial planning</t>
-  </si>
-  <si>
-    <t>Archival storytelling</t>
-  </si>
-  <si>
-    <t>Spatial design</t>
-  </si>
-  <si>
-    <t>Workflow coordination</t>
-  </si>
-  <si>
-    <t>Grant acquisition</t>
-  </si>
-  <si>
-    <t>Community impact evaluation</t>
-  </si>
-  <si>
-    <t>Cultural advisory</t>
-  </si>
-  <si>
-    <t>Data insights analysis</t>
-  </si>
-  <si>
-    <t>Digital marketing optimization</t>
-  </si>
-  <si>
-    <t>Market positioning strategy</t>
-  </si>
-  <si>
-    <t>On-site experience coordination</t>
-  </si>
-  <si>
-    <t>System architecture design</t>
-  </si>
-  <si>
-    <t>Holographic projection design and execution</t>
+    <t>Software Engineering</t>
   </si>
   <si>
     <t>Communication</t>
   </si>
   <si>
-    <t>Language / Text</t>
-  </si>
-  <si>
-    <t>Project ideation</t>
-  </si>
-  <si>
-    <t>Visual Design</t>
+    <t>Regulatory Compliance</t>
+  </si>
+  <si>
+    <t>Video/Animation</t>
+  </si>
+  <si>
+    <t>Digital fabrication</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence</t>
+  </si>
+  <si>
+    <t>3D related</t>
   </si>
   <si>
     <t>Archives</t>
   </si>
   <si>
-    <t>Business</t>
-  </si>
-  <si>
-    <t>Interaction Design</t>
-  </si>
-  <si>
-    <t>Audio/Sound</t>
-  </si>
-  <si>
-    <t>Video, Animation &amp; Games</t>
-  </si>
-  <si>
-    <t>Research</t>
-  </si>
-  <si>
-    <t>Community / Stakeholders</t>
-  </si>
-  <si>
-    <t>IT &amp; Software</t>
-  </si>
-  <si>
     <t>Disciplinary domains and practices</t>
   </si>
   <si>
-    <t>Leadership</t>
-  </si>
-  <si>
-    <t>Exhibition &amp; Immersive Experiences</t>
-  </si>
-  <si>
-    <t>3D related</t>
-  </si>
-  <si>
-    <t>Fashion</t>
-  </si>
-  <si>
-    <t>Digital fabrication</t>
-  </si>
-  <si>
-    <t>AI / Blockchain</t>
+    <t>Language Analysis</t>
   </si>
   <si>
     <t>["Multi - Multimedia Museum", "Synthetic Memories"]</t>
@@ -809,28 +689,43 @@
     <t>["Multi - Multimedia Museum"]</t>
   </si>
   <si>
+    <t>["Multi - Multimedia Museum", "ADLaM", "RISE UP - Revitalising Languages and Safeguarding Cultural Diversity"]</t>
+  </si>
+  <si>
+    <t>["Multi - Multimedia Museum", "History Blocks"]</t>
+  </si>
+  <si>
     <t>["Multi - Multimedia Museum", "Hundred Days: Winemaking Simulator", "ADLaM", "A soup to remember", "TRACTION Opera co-creation for a social transformation"]</t>
   </si>
   <si>
-    <t>["Multi - Multimedia Museum", "Cultural Avatars", "No Food Tomorrow - Eucarestia", "MODAS: Sas Boghes da sos Singers a Tenor"]</t>
+    <t>["Multi - Multimedia Museum", "Cultural Avatars", "No Food Tomorrow - Eucarestia", "MODAS: Sas Boghes da sos Singers a Tenor", "Craftal"]</t>
   </si>
   <si>
     <t>["Multi - Multimedia Museum", "ADLaM", "A soup to remember", "TRACTION Opera co-creation for a social transformation", "Weaving Time", "Piccolo Museo del Diario"]</t>
   </si>
   <si>
+    <t>["Multi - Multimedia Museum", "Design philology"]</t>
+  </si>
+  <si>
+    <t>["Multi - Multimedia Museum", "No Food Tomorrow - Eucarestia"]</t>
+  </si>
+  <si>
     <t>["Multi - Multimedia Museum", "Hundred Days: Winemaking Simulator", "Virtual Dance Museum", "Whispering table", "Synthetic Memories", "Craftal", "MEMEX. MEMories and EXperiences for inclusive digital storytelling", "Quantum Temple Path to Alango", "Quantum Temple Passport"]</t>
   </si>
   <si>
     <t>["Hundred Days: Winemaking Simulator", "ADLaM", "A soup to remember", "Pub Museums", "History Blocks"]</t>
   </si>
   <si>
-    <t>["Hundred Days: Winemaking Simulator", "Renai Dance Animation", "RÃ©veil des Archives sonores", "HKMALA - Hong Kong Martial Arts Living Archive"]</t>
+    <t>["Hundred Days: Winemaking Simulator", "Renai Dance Animation", "Réveil des Archives sonores", "HKMALA - Hong Kong Martial Arts Living Archive"]</t>
   </si>
   <si>
     <t>["Hundred Days: Winemaking Simulator"]</t>
   </si>
   <si>
-    <t>["ADLaM", "Urban Media Archive, [unarchiving] program", "RÃ©veil des Archives sonores", "Quantum Temple Path to Alango", "Quantum Temple Passport"]</t>
+    <t>["Hundred Days: Winemaking Simulator", "Omni Chang’An Site Concept Show"]</t>
+  </si>
+  <si>
+    <t>["ADLaM", "Urban Media Archive, [unarchiving] program", "Réveil des Archives sonores", "Quantum Temple Path to Alango", "Quantum Temple Passport"]</t>
   </si>
   <si>
     <t>["ADLaM"]</t>
@@ -845,6 +740,12 @@
     <t>["ADLaM", "A soup to remember", "Pub Museums", "No Food Tomorrow - Eucarestia", "Whispering table", "Synthetic Memories", "Lisbon Under Stars"]</t>
   </si>
   <si>
+    <t>["ADLaM", "Virtual Dance Museum"]</t>
+  </si>
+  <si>
+    <t>["ADLaM", "Pub Museums", "Cultural Avatars"]</t>
+  </si>
+  <si>
     <t>["ADLaM", "Ichpedia"]</t>
   </si>
   <si>
@@ -860,7 +761,7 @@
     <t>["A soup to remember", "Fabric Museum: TextLoom"]</t>
   </si>
   <si>
-    <t>["A soup to remember", "ARCHETIPI da Poseidonia a Paestum, ricerca di manufatti contemporanei", "MODAS: Sas Boghes da sos Singers a Tenor", "Polifonia Portal", "Synthetic Memories", "Swapmuseun", "ComuniterrÃ e"]</t>
+    <t>["A soup to remember", "ARCHETIPI da Poseidonia a Paestum, ricerca di manufatti contemporanei", "MODAS: Sas Boghes da sos Singers a Tenor", "Polifonia Portal", "Synthetic Memories", "Swapmuseun", "Comuniterràe"]</t>
   </si>
   <si>
     <t>["A soup to remember", "Cultural Avatars", "Synthetic Memories"]</t>
@@ -872,10 +773,13 @@
     <t>["A soup to remember", "Cultural Avatars"]</t>
   </si>
   <si>
+    <t>["A soup to remember", "Kaarigari"]</t>
+  </si>
+  <si>
     <t>["A soup to remember", "Pub Museums"]</t>
   </si>
   <si>
-    <t>["A soup to remember", "THE GREAT PALERMO", "Virtual Dance Museum", "Synthetic Memories", "Craftal", "RISE UP - Revitalising Languages and Safeguarding Cultural Diversity", "Urban Media Archive, [unarchiving] program", "Swapmuseun", "MEMEX. MEMories and EXperiences for inclusive digital storytelling", "Quantum Temple Path to Alango", "Quantum Temple Passport"]</t>
+    <t>["A soup to remember", "THE GREAT PALERMO", "Virtual Dance Museum", "TRACTION Opera co-creation for a social transformation", "Omni Chang’An Site Concept Show", "Synthetic Memories", "Craftal", "RISE UP - Revitalising Languages and Safeguarding Cultural Diversity", "Urban Media Archive, [unarchiving] program", "Swapmuseun", "MEMEX. MEMories and EXperiences for inclusive digital storytelling", "Quantum Temple Path to Alango", "Quantum Temple Passport"]</t>
   </si>
   <si>
     <t>["A soup to remember", "Tempio del Brunello"]</t>
@@ -893,19 +797,16 @@
     <t>["Pub Museums", "Cultural Avatars", "Synthetic Memories"]</t>
   </si>
   <si>
-    <t>["Pub Museums", "Cultural Avatars"]</t>
-  </si>
-  <si>
     <t>["Pub Museums", "Tempio del Brunello", "Quantum Temple Path to Alango", "Quantum Temple Passport"]</t>
   </si>
   <si>
-    <t>["Pub Museums", "La Baguette stamp"]</t>
-  </si>
-  <si>
-    <t>["Pub Museums", "Quantum Temple Path to Alango", "Quantum Temple Passport"]</t>
-  </si>
-  <si>
-    <t>["Pub Museums", "THE GREAT PALERMO", "Camino Al Mictlan NFT", "ComuniterrÃ e", "Tacit Dialogues"]</t>
+    <t>["Pub Museums", "La Baguette stamp", "MEMEX. MEMories and EXperiences for inclusive digital storytelling"]</t>
+  </si>
+  <si>
+    <t>["Pub Museums", "Synthetic Memories", "Quantum Temple Path to Alango", "Quantum Temple Passport"]</t>
+  </si>
+  <si>
+    <t>["Pub Museums", "THE GREAT PALERMO", "Camino Al Mictlan NFT", "Whispering table", "Synthetic Memories", "Swapmuseun", "Comuniterràe", "Tacit Dialogues"]</t>
   </si>
   <si>
     <t>["THE GREAT PALERMO"]</t>
@@ -920,7 +821,10 @@
     <t>["Cultural Avatars", "Virtual Dance Museum"]</t>
   </si>
   <si>
-    <t>["Cultural Avatars", "HKMALA - Hong Kong Martial Arts Living Archive"]</t>
+    <t>["Cultural Avatars", "Cyberknitics", "HKMALA - Hong Kong Martial Arts Living Archive"]</t>
+  </si>
+  <si>
+    <t>["Cultural Avatars", "Odeuropa Smell Explorer"]</t>
   </si>
   <si>
     <t>["Cultural Avatars", "No Food Tomorrow - Eucarestia", "Design philology"]</t>
@@ -938,22 +842,25 @@
     <t>["ARCHETIPI da Poseidonia a Paestum, ricerca di manufatti contemporanei", "Craftal", "Tacit Dialogues", "Quantum Temple Path to Alango", "Quantum Temple Passport"]</t>
   </si>
   <si>
+    <t>["No Food Tomorrow - Eucarestia", "Synthetic Memories", "Planet Word: The First Voice-Activated Museum", "Quantum Temple Path to Alango", "Quantum Temple Passport"]</t>
+  </si>
+  <si>
     <t>["No Food Tomorrow - Eucarestia"]</t>
   </si>
   <si>
-    <t>["No Food Tomorrow - Eucarestia", "Synthetic Memories", "Planet Word: The First Voice-Activated Museum"]</t>
-  </si>
-  <si>
     <t>["Virtual Dance Museum"]</t>
   </si>
   <si>
-    <t>["Virtual Dance Museum", "TRACTION Opera co-creation for a social transformation", "Omni ChangâAn Site Concept Show"]</t>
+    <t>["Virtual Dance Museum", "TRACTION Opera co-creation for a social transformation", "Omni Chang’An Site Concept Show"]</t>
+  </si>
+  <si>
+    <t>["Virtual Dance Museum", "Paderpedia", "Urban Media Archive, [unarchiving] program"]</t>
   </si>
   <si>
     <t>["Virtual Dance Museum", "Paderpedia"]</t>
   </si>
   <si>
-    <t>["Virtual Dance Museum", "Ichpedia", "Odeuropa Smell Explorer", "Lisbon Under Stars", "Urban Media Archive, [unarchiving] program", "Planet Word: The First Voice-Activated Museum"]</t>
+    <t>["Virtual Dance Museum", "Ichpedia", "Odeuropa Smell Explorer", "Polifonia Portal", "Lisbon Under Stars", "Urban Media Archive, [unarchiving] program", "The Living Museum", "Planet Word: The First Voice-Activated Museum"]</t>
   </si>
   <si>
     <t>["Virtual Dance Museum", "Paderpedia", "MEMEX. MEMories and EXperiences for inclusive digital storytelling"]</t>
@@ -968,19 +875,31 @@
     <t>["GPT-4 for Icelandic Language"]</t>
   </si>
   <si>
-    <t>["GPT-4 for Icelandic Language", "Synthetic Memories", "Bamboo Weaving Mold"]</t>
+    <t>["GPT-4 for Icelandic Language", "ReCollection", "Synthetic Memories", "Bamboo Weaving Mold"]</t>
   </si>
   <si>
     <t>["GPT-4 for Icelandic Language", "MEMEX. MEMories and EXperiences for inclusive digital storytelling"]</t>
   </si>
   <si>
+    <t>["GPT-4 for Icelandic Language", "MEMEX. MEMories and EXperiences for inclusive digital storytelling", "Quantum Temple Path to Alango", "Quantum Temple Passport"]</t>
+  </si>
+  <si>
+    <t>["GPT-4 for Icelandic Language", "Omni Chang’An Site Concept Show"]</t>
+  </si>
+  <si>
     <t>["Ichpedia"]</t>
   </si>
   <si>
-    <t>["MODAS: Sas Boghes da sos Singers a Tenor", "Lisbon Under Stars", "RÃ©veil des Archives sonores"]</t>
-  </si>
-  <si>
-    <t>["MODAS: Sas Boghes da sos Singers a Tenor", "Omni ChangâAn Site Concept Show"]</t>
+    <t>["Ichpedia", "Polifonia Portal"]</t>
+  </si>
+  <si>
+    <t>["Ichpedia", "MEMEX. MEMories and EXperiences for inclusive digital storytelling", "Quantum Temple Path to Alango", "Quantum Temple Passport"]</t>
+  </si>
+  <si>
+    <t>["MODAS: Sas Boghes da sos Singers a Tenor", "Lisbon Under Stars", "Réveil des Archives sonores"]</t>
+  </si>
+  <si>
+    <t>["MODAS: Sas Boghes da sos Singers a Tenor", "Omni Chang’An Site Concept Show"]</t>
   </si>
   <si>
     <t>["Whispering table"]</t>
@@ -995,13 +914,10 @@
     <t>["Polifonia Portal"]</t>
   </si>
   <si>
-    <t>["TRACTION Opera co-creation for a social transformation"]</t>
-  </si>
-  <si>
-    <t>["Omni ChangâAn Site Concept Show"]</t>
-  </si>
-  <si>
-    <t>["Omni ChangâAn Site Concept Show", "Lisbon Under Stars"]</t>
+    <t>["Omni Chang’An Site Concept Show"]</t>
+  </si>
+  <si>
+    <t>["Omni Chang’An Site Concept Show", "Lisbon Under Stars"]</t>
   </si>
   <si>
     <t>["Tempio del Brunello"]</t>
@@ -1016,6 +932,9 @@
     <t>["ReCollection"]</t>
   </si>
   <si>
+    <t>["Synthetic Memories", "Piccolo Museo del Diario"]</t>
+  </si>
+  <si>
     <t>["Synthetic Memories"]</t>
   </si>
   <si>
@@ -1031,13 +950,19 @@
     <t>["RISE UP - Revitalising Languages and Safeguarding Cultural Diversity"]</t>
   </si>
   <si>
+    <t>["RISE UP - Revitalising Languages and Safeguarding Cultural Diversity", "Planet Word: The First Voice-Activated Museum"]</t>
+  </si>
+  <si>
     <t>["Bamboo Weaving Mold"]</t>
   </si>
   <si>
+    <t>["Urban Media Archive, [unarchiving] program", "Swapmuseun"]</t>
+  </si>
+  <si>
     <t>["Urban Media Archive, [unarchiving] program"]</t>
   </si>
   <si>
-    <t>["Urban Media Archive, [unarchiving] program", "ComuniterrÃ e"]</t>
+    <t>["Urban Media Archive, [unarchiving] program", "Comuniterràe"]</t>
   </si>
   <si>
     <t>["Urban Media Archive, [unarchiving] program", "Piccolo Museo del Diario"]</t>
@@ -1046,10 +971,10 @@
     <t>["Swapmuseun"]</t>
   </si>
   <si>
-    <t>["ComuniterrÃ e"]</t>
-  </si>
-  <si>
-    <t>["ComuniterrÃ e", "HKMALA - Hong Kong Martial Arts Living Archive"]</t>
+    <t>["Comuniterràe"]</t>
+  </si>
+  <si>
+    <t>["Comuniterràe", "HKMALA - Hong Kong Martial Arts Living Archive"]</t>
   </si>
   <si>
     <t>["Tacit Dialogues"]</t>
@@ -1076,10 +1001,7 @@
     <t>["MEMEX. MEMories and EXperiences for inclusive digital storytelling"]</t>
   </si>
   <si>
-    <t>["MEMEX. MEMories and EXperiences for inclusive digital storytelling", "Quantum Temple Path to Alango", "Quantum Temple Passport"]</t>
-  </si>
-  <si>
-    <t>["RÃ©veil des Archives sonores"]</t>
+    <t>["Réveil des Archives sonores"]</t>
   </si>
   <si>
     <t>["The Living Museum"]</t>
@@ -1097,9 +1019,6 @@
     <t>["HKMALA - Hong Kong Martial Arts Living Archive"]</t>
   </si>
   <si>
-    <t>["Multi - Multimedia Museum", "ADLaM", "A soup to remember", "Pub Museums", "THE GREAT PALERMO", "No Food Tomorrow - Eucarestia", "MODAS: Sas Boghes da sos Singers a Tenor", "Camino Al Mictlan NFT", "Whispering table", "History Blocks", "Polifonia Portal", "TRACTION Opera co-creation for a social transformation", "Paderpedia", "Omni ChangâAn Site Concept Show", "Tempio del Brunello", "Renai Dance Animation", "ReCollection", "Synthetic Memories", "Lisbon Under Stars", "Craftal", "Bamboo Weaving Mold", "Urban Media Archive, [unarchiving] program", "Swapmuseun", "ComuniterrÃ e", "Tacit Dialogues", "Cyberknitics", "Kaarigari", "La Baguette stamp", "Fabric Museum: TextLoom", "Weaving Time", "Design philology", "MEMEX. MEMories and EXperiences for inclusive digital storytelling", "RÃ©veil des Archives sonores", "The Living Museum", "Planet Word: The First Voice-Activated Museum", "Piccolo Museo del Diario", "Quantum Temple Path to Alango", "Quantum Temple Passport", "HKMALA - Hong Kong Martial Arts Living Archive", ""]</t>
-  </si>
-  <si>
     <t>projects</t>
   </si>
   <si>
@@ -1172,7 +1091,7 @@
     <t>Paderpedia</t>
   </si>
   <si>
-    <t>Omni ChangâAn Site Concept Show</t>
+    <t>Omni Chang’An Site Concept Show</t>
   </si>
   <si>
     <t>Tempio del Brunello</t>
@@ -1205,7 +1124,7 @@
     <t>Swapmuseun</t>
   </si>
   <si>
-    <t>ComuniterrÃ e</t>
+    <t>Comuniterràe</t>
   </si>
   <si>
     <t>Tacit Dialogues</t>
@@ -1232,7 +1151,7 @@
     <t>MEMEX. MEMories and EXperiences for inclusive digital storytelling</t>
   </si>
   <si>
-    <t>RÃ©veil des Archives sonores</t>
+    <t>Réveil des Archives sonores</t>
   </si>
   <si>
     <t>The Living Museum</t>
@@ -1932,7 +1851,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C242"/>
+  <dimension ref="A1:C201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1954,10 +1873,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>243</v>
+        <v>203</v>
       </c>
       <c r="C2" t="s">
-        <v>262</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1965,10 +1884,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>204</v>
       </c>
       <c r="C3" t="s">
-        <v>263</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1976,10 +1895,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="C4" t="s">
-        <v>263</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1987,10 +1906,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>206</v>
       </c>
       <c r="C5" t="s">
-        <v>263</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1998,10 +1917,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>243</v>
+        <v>204</v>
       </c>
       <c r="C6" t="s">
-        <v>264</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2009,10 +1928,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>245</v>
+        <v>207</v>
       </c>
       <c r="C7" t="s">
-        <v>265</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2020,10 +1939,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>246</v>
+        <v>203</v>
       </c>
       <c r="C8" t="s">
-        <v>266</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2031,10 +1950,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>247</v>
+        <v>205</v>
       </c>
       <c r="C9" t="s">
-        <v>263</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2042,10 +1961,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>247</v>
+        <v>203</v>
       </c>
       <c r="C10" t="s">
-        <v>263</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2053,10 +1972,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>248</v>
+        <v>208</v>
       </c>
       <c r="C11" t="s">
-        <v>263</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2064,10 +1983,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>249</v>
+        <v>91</v>
       </c>
       <c r="C12" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2075,10 +1994,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>245</v>
+        <v>203</v>
       </c>
       <c r="C13" t="s">
-        <v>268</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2086,10 +2005,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>250</v>
+        <v>209</v>
       </c>
       <c r="C14" t="s">
-        <v>269</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2097,10 +2016,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>248</v>
+        <v>208</v>
       </c>
       <c r="C15" t="s">
-        <v>270</v>
+        <v>234</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2108,10 +2027,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>245</v>
+        <v>207</v>
       </c>
       <c r="C16" t="s">
-        <v>270</v>
+        <v>234</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2119,10 +2038,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>251</v>
+        <v>193</v>
       </c>
       <c r="C17" t="s">
-        <v>270</v>
+        <v>234</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2130,10 +2049,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>251</v>
+        <v>210</v>
       </c>
       <c r="C18" t="s">
-        <v>270</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2141,10 +2060,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>251</v>
+        <v>205</v>
       </c>
       <c r="C19" t="s">
-        <v>270</v>
+        <v>236</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2152,10 +2071,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>252</v>
+        <v>206</v>
       </c>
       <c r="C20" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2163,10 +2082,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>253</v>
+        <v>203</v>
       </c>
       <c r="C21" t="s">
-        <v>272</v>
+        <v>237</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2174,10 +2093,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>253</v>
+        <v>210</v>
       </c>
       <c r="C22" t="s">
-        <v>272</v>
+        <v>238</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2185,10 +2104,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>246</v>
+        <v>211</v>
       </c>
       <c r="C23" t="s">
-        <v>272</v>
+        <v>239</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2196,10 +2115,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>243</v>
+        <v>207</v>
       </c>
       <c r="C24" t="s">
-        <v>273</v>
+        <v>240</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2207,10 +2126,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="C25" t="s">
-        <v>274</v>
+        <v>241</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2218,10 +2137,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>245</v>
+        <v>213</v>
       </c>
       <c r="C26" t="s">
-        <v>275</v>
+        <v>242</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2229,10 +2148,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>249</v>
+        <v>213</v>
       </c>
       <c r="C27" t="s">
-        <v>272</v>
+        <v>243</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2240,10 +2159,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>243</v>
+        <v>213</v>
       </c>
       <c r="C28" t="s">
-        <v>272</v>
+        <v>237</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2251,10 +2170,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>243</v>
+        <v>214</v>
       </c>
       <c r="C29" t="s">
-        <v>276</v>
+        <v>244</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2262,10 +2181,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>212</v>
       </c>
       <c r="C30" t="s">
-        <v>272</v>
+        <v>237</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2273,10 +2192,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>215</v>
       </c>
       <c r="C31" t="s">
-        <v>277</v>
+        <v>245</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2284,10 +2203,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>254</v>
+        <v>216</v>
       </c>
       <c r="C32" t="s">
-        <v>272</v>
+        <v>246</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2295,10 +2214,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>251</v>
+        <v>213</v>
       </c>
       <c r="C33" t="s">
-        <v>278</v>
+        <v>247</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2306,10 +2225,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="C34" t="s">
-        <v>279</v>
+        <v>245</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2317,10 +2236,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>243</v>
+        <v>206</v>
       </c>
       <c r="C35" t="s">
-        <v>280</v>
+        <v>248</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2328,10 +2247,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>255</v>
+        <v>204</v>
       </c>
       <c r="C36" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2339,10 +2258,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>253</v>
+        <v>206</v>
       </c>
       <c r="C37" t="s">
-        <v>281</v>
+        <v>245</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2350,10 +2269,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>256</v>
+        <v>203</v>
       </c>
       <c r="C38" t="s">
-        <v>282</v>
+        <v>250</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2361,10 +2280,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>243</v>
+        <v>204</v>
       </c>
       <c r="C39" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2372,10 +2291,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="C40" t="s">
-        <v>283</v>
+        <v>252</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2383,10 +2302,10 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>256</v>
+        <v>209</v>
       </c>
       <c r="C41" t="s">
-        <v>284</v>
+        <v>245</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2394,10 +2313,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
+        <v>203</v>
+      </c>
+      <c r="C42" t="s">
         <v>253</v>
-      </c>
-      <c r="C42" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2405,10 +2324,10 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>250</v>
+        <v>211</v>
       </c>
       <c r="C43" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -2416,10 +2335,10 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>243</v>
+        <v>205</v>
       </c>
       <c r="C44" t="s">
-        <v>285</v>
+        <v>245</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2427,10 +2346,10 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>46</v>
+        <v>215</v>
       </c>
       <c r="C45" t="s">
-        <v>286</v>
+        <v>255</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -2438,10 +2357,10 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>243</v>
+        <v>206</v>
       </c>
       <c r="C46" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -2449,10 +2368,10 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>251</v>
+        <v>212</v>
       </c>
       <c r="C47" t="s">
-        <v>287</v>
+        <v>257</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -2460,10 +2379,10 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>243</v>
+        <v>91</v>
       </c>
       <c r="C48" t="s">
-        <v>288</v>
+        <v>256</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -2471,10 +2390,10 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="C49" t="s">
-        <v>289</v>
+        <v>258</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -2482,10 +2401,10 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>257</v>
+        <v>206</v>
       </c>
       <c r="C50" t="s">
-        <v>288</v>
+        <v>259</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -2493,10 +2412,10 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>248</v>
+        <v>213</v>
       </c>
       <c r="C51" t="s">
-        <v>290</v>
+        <v>260</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -2504,10 +2423,10 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>248</v>
+        <v>213</v>
       </c>
       <c r="C52" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2515,10 +2434,10 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>243</v>
+        <v>204</v>
       </c>
       <c r="C53" t="s">
-        <v>292</v>
+        <v>256</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -2526,10 +2445,10 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="C54" t="s">
-        <v>293</v>
+        <v>256</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -2537,10 +2456,10 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="C55" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -2548,10 +2467,10 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>256</v>
+        <v>212</v>
       </c>
       <c r="C56" t="s">
-        <v>288</v>
+        <v>262</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -2559,10 +2478,10 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>257</v>
+        <v>210</v>
       </c>
       <c r="C57" t="s">
-        <v>288</v>
+        <v>263</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -2570,10 +2489,10 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>248</v>
+        <v>193</v>
       </c>
       <c r="C58" t="s">
-        <v>294</v>
+        <v>264</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -2581,10 +2500,10 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>256</v>
+        <v>206</v>
       </c>
       <c r="C59" t="s">
-        <v>295</v>
+        <v>264</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -2592,10 +2511,10 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>243</v>
+        <v>205</v>
       </c>
       <c r="C60" t="s">
-        <v>296</v>
+        <v>265</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -2603,10 +2522,10 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>251</v>
+        <v>213</v>
       </c>
       <c r="C61" t="s">
-        <v>297</v>
+        <v>266</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2614,10 +2533,10 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>253</v>
+        <v>213</v>
       </c>
       <c r="C62" t="s">
-        <v>297</v>
+        <v>266</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2625,10 +2544,10 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>249</v>
+        <v>218</v>
       </c>
       <c r="C63" t="s">
-        <v>298</v>
+        <v>267</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2636,10 +2555,10 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>243</v>
+        <v>210</v>
       </c>
       <c r="C64" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2647,10 +2566,10 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>243</v>
+        <v>193</v>
       </c>
       <c r="C65" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2658,10 +2577,10 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>258</v>
+        <v>67</v>
       </c>
       <c r="C66" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2669,10 +2588,10 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>258</v>
+        <v>215</v>
       </c>
       <c r="C67" t="s">
-        <v>300</v>
+        <v>267</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2680,10 +2599,10 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="C68" t="s">
-        <v>299</v>
+        <v>268</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2691,10 +2610,10 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
       <c r="C69" t="s">
-        <v>299</v>
+        <v>269</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2702,10 +2621,10 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>259</v>
+        <v>210</v>
       </c>
       <c r="C70" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2713,10 +2632,10 @@
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>251</v>
+        <v>203</v>
       </c>
       <c r="C71" t="s">
-        <v>299</v>
+        <v>270</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2724,10 +2643,10 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>251</v>
+        <v>220</v>
       </c>
       <c r="C72" t="s">
-        <v>301</v>
+        <v>271</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -2735,10 +2654,10 @@
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>248</v>
+        <v>91</v>
       </c>
       <c r="C73" t="s">
-        <v>299</v>
+        <v>272</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -2746,10 +2665,10 @@
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>248</v>
+        <v>216</v>
       </c>
       <c r="C74" t="s">
-        <v>299</v>
+        <v>271</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -2757,10 +2676,10 @@
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>246</v>
+        <v>216</v>
       </c>
       <c r="C75" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2768,10 +2687,10 @@
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>255</v>
+        <v>210</v>
       </c>
       <c r="C76" t="s">
-        <v>303</v>
+        <v>273</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2779,10 +2698,10 @@
         <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>253</v>
+        <v>211</v>
       </c>
       <c r="C77" t="s">
-        <v>304</v>
+        <v>274</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2790,10 +2709,10 @@
         <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>260</v>
+        <v>213</v>
       </c>
       <c r="C78" t="s">
-        <v>303</v>
+        <v>275</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2801,10 +2720,10 @@
         <v>80</v>
       </c>
       <c r="B79" t="s">
-        <v>260</v>
+        <v>210</v>
       </c>
       <c r="C79" t="s">
-        <v>303</v>
+        <v>276</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2812,10 +2731,10 @@
         <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>257</v>
+        <v>209</v>
       </c>
       <c r="C80" t="s">
-        <v>305</v>
+        <v>277</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2823,10 +2742,10 @@
         <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="C81" t="s">
-        <v>306</v>
+        <v>278</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2834,10 +2753,10 @@
         <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>247</v>
+        <v>205</v>
       </c>
       <c r="C82" t="s">
-        <v>307</v>
+        <v>277</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2845,10 +2764,10 @@
         <v>84</v>
       </c>
       <c r="B83" t="s">
-        <v>257</v>
+        <v>220</v>
       </c>
       <c r="C83" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2856,10 +2775,10 @@
         <v>85</v>
       </c>
       <c r="B84" t="s">
-        <v>261</v>
+        <v>220</v>
       </c>
       <c r="C84" t="s">
-        <v>307</v>
+        <v>277</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2867,10 +2786,10 @@
         <v>86</v>
       </c>
       <c r="B85" t="s">
-        <v>250</v>
+        <v>219</v>
       </c>
       <c r="C85" t="s">
-        <v>309</v>
+        <v>279</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2878,10 +2797,10 @@
         <v>87</v>
       </c>
       <c r="B86" t="s">
-        <v>259</v>
+        <v>212</v>
       </c>
       <c r="C86" t="s">
-        <v>310</v>
+        <v>277</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2889,10 +2808,10 @@
         <v>88</v>
       </c>
       <c r="B87" t="s">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="C87" t="s">
-        <v>309</v>
+        <v>280</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2900,10 +2819,10 @@
         <v>89</v>
       </c>
       <c r="B88" t="s">
-        <v>258</v>
+        <v>220</v>
       </c>
       <c r="C88" t="s">
-        <v>309</v>
+        <v>277</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2911,10 +2830,10 @@
         <v>90</v>
       </c>
       <c r="B89" t="s">
-        <v>253</v>
+        <v>205</v>
       </c>
       <c r="C89" t="s">
-        <v>309</v>
+        <v>281</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2922,10 +2841,10 @@
         <v>91</v>
       </c>
       <c r="B90" t="s">
-        <v>247</v>
+        <v>91</v>
       </c>
       <c r="C90" t="s">
-        <v>309</v>
+        <v>277</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2933,10 +2852,10 @@
         <v>92</v>
       </c>
       <c r="B91" t="s">
-        <v>247</v>
+        <v>220</v>
       </c>
       <c r="C91" t="s">
-        <v>309</v>
+        <v>282</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2944,10 +2863,10 @@
         <v>93</v>
       </c>
       <c r="B92" t="s">
-        <v>252</v>
+        <v>215</v>
       </c>
       <c r="C92" t="s">
-        <v>311</v>
+        <v>277</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2955,10 +2874,10 @@
         <v>94</v>
       </c>
       <c r="B93" t="s">
-        <v>252</v>
+        <v>211</v>
       </c>
       <c r="C93" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2966,10 +2885,10 @@
         <v>95</v>
       </c>
       <c r="B94" t="s">
-        <v>247</v>
+        <v>212</v>
       </c>
       <c r="C94" t="s">
-        <v>311</v>
+        <v>284</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2977,10 +2896,10 @@
         <v>96</v>
       </c>
       <c r="B95" t="s">
-        <v>247</v>
+        <v>217</v>
       </c>
       <c r="C95" t="s">
-        <v>309</v>
+        <v>285</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2988,10 +2907,10 @@
         <v>97</v>
       </c>
       <c r="B96" t="s">
-        <v>255</v>
+        <v>217</v>
       </c>
       <c r="C96" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2999,10 +2918,10 @@
         <v>98</v>
       </c>
       <c r="B97" t="s">
-        <v>252</v>
+        <v>212</v>
       </c>
       <c r="C97" t="s">
-        <v>312</v>
+        <v>285</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -3010,10 +2929,10 @@
         <v>99</v>
       </c>
       <c r="B98" t="s">
-        <v>258</v>
+        <v>208</v>
       </c>
       <c r="C98" t="s">
-        <v>309</v>
+        <v>285</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -3021,10 +2940,10 @@
         <v>100</v>
       </c>
       <c r="B99" t="s">
-        <v>247</v>
+        <v>217</v>
       </c>
       <c r="C99" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -3032,10 +2951,10 @@
         <v>101</v>
       </c>
       <c r="B100" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="C100" t="s">
-        <v>309</v>
+        <v>285</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -3043,10 +2962,10 @@
         <v>102</v>
       </c>
       <c r="B101" t="s">
-        <v>252</v>
+        <v>208</v>
       </c>
       <c r="C101" t="s">
-        <v>314</v>
+        <v>285</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -3054,10 +2973,10 @@
         <v>103</v>
       </c>
       <c r="B102" t="s">
-        <v>249</v>
+        <v>212</v>
       </c>
       <c r="C102" t="s">
-        <v>315</v>
+        <v>288</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -3065,10 +2984,10 @@
         <v>104</v>
       </c>
       <c r="B103" t="s">
-        <v>261</v>
+        <v>217</v>
       </c>
       <c r="C103" t="s">
-        <v>316</v>
+        <v>285</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -3076,10 +2995,10 @@
         <v>105</v>
       </c>
       <c r="B104" t="s">
-        <v>261</v>
+        <v>208</v>
       </c>
       <c r="C104" t="s">
-        <v>317</v>
+        <v>289</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -3087,10 +3006,10 @@
         <v>106</v>
       </c>
       <c r="B105" t="s">
-        <v>261</v>
+        <v>205</v>
       </c>
       <c r="C105" t="s">
-        <v>316</v>
+        <v>290</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -3098,10 +3017,10 @@
         <v>107</v>
       </c>
       <c r="B106" t="s">
-        <v>248</v>
+        <v>212</v>
       </c>
       <c r="C106" t="s">
-        <v>316</v>
+        <v>290</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -3109,10 +3028,10 @@
         <v>108</v>
       </c>
       <c r="B107" t="s">
-        <v>261</v>
+        <v>205</v>
       </c>
       <c r="C107" t="s">
-        <v>318</v>
+        <v>290</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -3120,10 +3039,10 @@
         <v>109</v>
       </c>
       <c r="B108" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="C108" t="s">
-        <v>316</v>
+        <v>290</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -3131,10 +3050,10 @@
         <v>110</v>
       </c>
       <c r="B109" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="C109" t="s">
-        <v>316</v>
+        <v>290</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -3142,10 +3061,10 @@
         <v>111</v>
       </c>
       <c r="B110" t="s">
-        <v>261</v>
+        <v>209</v>
       </c>
       <c r="C110" t="s">
-        <v>316</v>
+        <v>290</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -3153,10 +3072,10 @@
         <v>112</v>
       </c>
       <c r="B111" t="s">
-        <v>244</v>
+        <v>212</v>
       </c>
       <c r="C111" t="s">
-        <v>316</v>
+        <v>291</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -3164,10 +3083,10 @@
         <v>113</v>
       </c>
       <c r="B112" t="s">
-        <v>244</v>
+        <v>212</v>
       </c>
       <c r="C112" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -3175,10 +3094,10 @@
         <v>114</v>
       </c>
       <c r="B113" t="s">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="C113" t="s">
-        <v>319</v>
+        <v>290</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -3186,10 +3105,10 @@
         <v>115</v>
       </c>
       <c r="B114" t="s">
-        <v>254</v>
+        <v>209</v>
       </c>
       <c r="C114" t="s">
-        <v>319</v>
+        <v>293</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -3197,10 +3116,10 @@
         <v>116</v>
       </c>
       <c r="B115" t="s">
-        <v>255</v>
+        <v>217</v>
       </c>
       <c r="C115" t="s">
-        <v>319</v>
+        <v>294</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -3208,10 +3127,10 @@
         <v>117</v>
       </c>
       <c r="B116" t="s">
-        <v>255</v>
+        <v>205</v>
       </c>
       <c r="C116" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -3219,10 +3138,10 @@
         <v>118</v>
       </c>
       <c r="B117" t="s">
-        <v>255</v>
+        <v>209</v>
       </c>
       <c r="C117" t="s">
-        <v>319</v>
+        <v>296</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -3230,10 +3149,10 @@
         <v>119</v>
       </c>
       <c r="B118" t="s">
-        <v>246</v>
+        <v>212</v>
       </c>
       <c r="C118" t="s">
-        <v>319</v>
+        <v>297</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -3241,10 +3160,10 @@
         <v>120</v>
       </c>
       <c r="B119" t="s">
-        <v>255</v>
+        <v>205</v>
       </c>
       <c r="C119" t="s">
-        <v>319</v>
+        <v>297</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -3252,10 +3171,10 @@
         <v>121</v>
       </c>
       <c r="B120" t="s">
-        <v>255</v>
+        <v>210</v>
       </c>
       <c r="C120" t="s">
-        <v>319</v>
+        <v>297</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -3263,10 +3182,10 @@
         <v>122</v>
       </c>
       <c r="B121" t="s">
-        <v>255</v>
+        <v>212</v>
       </c>
       <c r="C121" t="s">
-        <v>319</v>
+        <v>297</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -3274,10 +3193,10 @@
         <v>123</v>
       </c>
       <c r="B122" t="s">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="C122" t="s">
-        <v>320</v>
+        <v>297</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -3285,10 +3204,10 @@
         <v>124</v>
       </c>
       <c r="B123" t="s">
-        <v>243</v>
+        <v>209</v>
       </c>
       <c r="C123" t="s">
-        <v>321</v>
+        <v>298</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -3296,10 +3215,10 @@
         <v>125</v>
       </c>
       <c r="B124" t="s">
-        <v>243</v>
+        <v>209</v>
       </c>
       <c r="C124" t="s">
-        <v>322</v>
+        <v>298</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -3307,10 +3226,10 @@
         <v>126</v>
       </c>
       <c r="B125" t="s">
-        <v>250</v>
+        <v>211</v>
       </c>
       <c r="C125" t="s">
-        <v>322</v>
+        <v>299</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -3318,10 +3237,10 @@
         <v>127</v>
       </c>
       <c r="B126" t="s">
-        <v>250</v>
+        <v>208</v>
       </c>
       <c r="C126" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -3329,10 +3248,10 @@
         <v>128</v>
       </c>
       <c r="B127" t="s">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="C127" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -3340,10 +3259,10 @@
         <v>129</v>
       </c>
       <c r="B128" t="s">
-        <v>255</v>
+        <v>211</v>
       </c>
       <c r="C128" t="s">
-        <v>324</v>
+        <v>299</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -3351,10 +3270,10 @@
         <v>130</v>
       </c>
       <c r="B129" t="s">
-        <v>261</v>
+        <v>213</v>
       </c>
       <c r="C129" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -3362,10 +3281,10 @@
         <v>131</v>
       </c>
       <c r="B130" t="s">
-        <v>252</v>
+        <v>204</v>
       </c>
       <c r="C130" t="s">
-        <v>324</v>
+        <v>299</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -3373,10 +3292,10 @@
         <v>132</v>
       </c>
       <c r="B131" t="s">
-        <v>244</v>
+        <v>206</v>
       </c>
       <c r="C131" t="s">
-        <v>324</v>
+        <v>301</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -3384,10 +3303,10 @@
         <v>133</v>
       </c>
       <c r="B132" t="s">
-        <v>255</v>
+        <v>214</v>
       </c>
       <c r="C132" t="s">
-        <v>324</v>
+        <v>301</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -3395,10 +3314,10 @@
         <v>134</v>
       </c>
       <c r="B133" t="s">
-        <v>255</v>
+        <v>205</v>
       </c>
       <c r="C133" t="s">
-        <v>324</v>
+        <v>301</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -3406,10 +3325,10 @@
         <v>135</v>
       </c>
       <c r="B134" t="s">
-        <v>255</v>
+        <v>210</v>
       </c>
       <c r="C134" t="s">
-        <v>325</v>
+        <v>302</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -3417,10 +3336,10 @@
         <v>136</v>
       </c>
       <c r="B135" t="s">
-        <v>247</v>
+        <v>210</v>
       </c>
       <c r="C135" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -3428,10 +3347,10 @@
         <v>137</v>
       </c>
       <c r="B136" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="C136" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -3439,10 +3358,10 @@
         <v>138</v>
       </c>
       <c r="B137" t="s">
-        <v>252</v>
+        <v>203</v>
       </c>
       <c r="C137" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -3450,10 +3369,10 @@
         <v>139</v>
       </c>
       <c r="B138" t="s">
-        <v>255</v>
+        <v>209</v>
       </c>
       <c r="C138" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -3461,10 +3380,10 @@
         <v>140</v>
       </c>
       <c r="B139" t="s">
-        <v>253</v>
+        <v>210</v>
       </c>
       <c r="C139" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -3472,10 +3391,10 @@
         <v>141</v>
       </c>
       <c r="B140" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="C140" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -3483,10 +3402,10 @@
         <v>142</v>
       </c>
       <c r="B141" t="s">
-        <v>248</v>
+        <v>206</v>
       </c>
       <c r="C141" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -3494,10 +3413,10 @@
         <v>143</v>
       </c>
       <c r="B142" t="s">
-        <v>253</v>
+        <v>209</v>
       </c>
       <c r="C142" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -3505,10 +3424,10 @@
         <v>144</v>
       </c>
       <c r="B143" t="s">
-        <v>46</v>
+        <v>212</v>
       </c>
       <c r="C143" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -3516,10 +3435,10 @@
         <v>145</v>
       </c>
       <c r="B144" t="s">
-        <v>257</v>
+        <v>91</v>
       </c>
       <c r="C144" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -3527,10 +3446,10 @@
         <v>146</v>
       </c>
       <c r="B145" t="s">
-        <v>257</v>
+        <v>212</v>
       </c>
       <c r="C145" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -3538,10 +3457,10 @@
         <v>147</v>
       </c>
       <c r="B146" t="s">
-        <v>46</v>
+        <v>211</v>
       </c>
       <c r="C146" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -3549,10 +3468,10 @@
         <v>148</v>
       </c>
       <c r="B147" t="s">
-        <v>257</v>
+        <v>214</v>
       </c>
       <c r="C147" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -3560,10 +3479,10 @@
         <v>149</v>
       </c>
       <c r="B148" t="s">
-        <v>257</v>
+        <v>220</v>
       </c>
       <c r="C148" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -3571,10 +3490,10 @@
         <v>150</v>
       </c>
       <c r="B149" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="C149" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -3582,10 +3501,10 @@
         <v>151</v>
       </c>
       <c r="B150" t="s">
-        <v>253</v>
+        <v>213</v>
       </c>
       <c r="C150" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -3593,10 +3512,10 @@
         <v>152</v>
       </c>
       <c r="B151" t="s">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="C151" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -3604,10 +3523,10 @@
         <v>153</v>
       </c>
       <c r="B152" t="s">
-        <v>249</v>
+        <v>203</v>
       </c>
       <c r="C152" t="s">
-        <v>330</v>
+        <v>308</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -3615,10 +3534,10 @@
         <v>154</v>
       </c>
       <c r="B153" t="s">
-        <v>257</v>
+        <v>220</v>
       </c>
       <c r="C153" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -3626,10 +3545,10 @@
         <v>155</v>
       </c>
       <c r="B154" t="s">
-        <v>255</v>
+        <v>193</v>
       </c>
       <c r="C154" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -3637,10 +3556,10 @@
         <v>156</v>
       </c>
       <c r="B155" t="s">
-        <v>246</v>
+        <v>214</v>
       </c>
       <c r="C155" t="s">
-        <v>331</v>
+        <v>310</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -3648,10 +3567,10 @@
         <v>157</v>
       </c>
       <c r="B156" t="s">
-        <v>250</v>
+        <v>214</v>
       </c>
       <c r="C156" t="s">
-        <v>331</v>
+        <v>310</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -3659,10 +3578,10 @@
         <v>158</v>
       </c>
       <c r="B157" t="s">
-        <v>261</v>
+        <v>213</v>
       </c>
       <c r="C157" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -3670,10 +3589,10 @@
         <v>159</v>
       </c>
       <c r="B158" t="s">
-        <v>246</v>
+        <v>209</v>
       </c>
       <c r="C158" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -3681,10 +3600,10 @@
         <v>160</v>
       </c>
       <c r="B159" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
       <c r="C159" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -3692,10 +3611,10 @@
         <v>161</v>
       </c>
       <c r="B160" t="s">
-        <v>256</v>
+        <v>219</v>
       </c>
       <c r="C160" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -3703,10 +3622,10 @@
         <v>162</v>
       </c>
       <c r="B161" t="s">
-        <v>243</v>
+        <v>205</v>
       </c>
       <c r="C161" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -3714,10 +3633,10 @@
         <v>163</v>
       </c>
       <c r="B162" t="s">
-        <v>256</v>
+        <v>218</v>
       </c>
       <c r="C162" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -3725,10 +3644,10 @@
         <v>164</v>
       </c>
       <c r="B163" t="s">
-        <v>256</v>
+        <v>205</v>
       </c>
       <c r="C163" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -3736,10 +3655,10 @@
         <v>165</v>
       </c>
       <c r="B164" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="C164" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -3747,10 +3666,10 @@
         <v>166</v>
       </c>
       <c r="B165" t="s">
-        <v>46</v>
+        <v>208</v>
       </c>
       <c r="C165" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -3758,10 +3677,10 @@
         <v>167</v>
       </c>
       <c r="B166" t="s">
-        <v>253</v>
+        <v>203</v>
       </c>
       <c r="C166" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -3769,10 +3688,10 @@
         <v>168</v>
       </c>
       <c r="B167" t="s">
-        <v>249</v>
+        <v>205</v>
       </c>
       <c r="C167" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -3780,10 +3699,10 @@
         <v>169</v>
       </c>
       <c r="B168" t="s">
-        <v>247</v>
+        <v>210</v>
       </c>
       <c r="C168" t="s">
-        <v>335</v>
+        <v>314</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -3791,10 +3710,10 @@
         <v>170</v>
       </c>
       <c r="B169" t="s">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="C169" t="s">
-        <v>335</v>
+        <v>314</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -3802,10 +3721,10 @@
         <v>171</v>
       </c>
       <c r="B170" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="C170" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -3813,10 +3732,10 @@
         <v>172</v>
       </c>
       <c r="B171" t="s">
-        <v>250</v>
+        <v>213</v>
       </c>
       <c r="C171" t="s">
-        <v>335</v>
+        <v>314</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -3824,10 +3743,10 @@
         <v>173</v>
       </c>
       <c r="B172" t="s">
-        <v>243</v>
+        <v>213</v>
       </c>
       <c r="C172" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -3835,10 +3754,10 @@
         <v>174</v>
       </c>
       <c r="B173" t="s">
-        <v>255</v>
+        <v>218</v>
       </c>
       <c r="C173" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -3846,10 +3765,10 @@
         <v>175</v>
       </c>
       <c r="B174" t="s">
-        <v>256</v>
+        <v>67</v>
       </c>
       <c r="C174" t="s">
-        <v>336</v>
+        <v>318</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -3857,10 +3776,10 @@
         <v>176</v>
       </c>
       <c r="B175" t="s">
-        <v>255</v>
+        <v>205</v>
       </c>
       <c r="C175" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -3868,10 +3787,10 @@
         <v>177</v>
       </c>
       <c r="B176" t="s">
-        <v>245</v>
+        <v>205</v>
       </c>
       <c r="C176" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -3879,10 +3798,10 @@
         <v>178</v>
       </c>
       <c r="B177" t="s">
-        <v>257</v>
+        <v>209</v>
       </c>
       <c r="C177" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -3890,10 +3809,10 @@
         <v>179</v>
       </c>
       <c r="B178" t="s">
-        <v>257</v>
+        <v>215</v>
       </c>
       <c r="C178" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -3901,10 +3820,10 @@
         <v>180</v>
       </c>
       <c r="B179" t="s">
-        <v>243</v>
+        <v>210</v>
       </c>
       <c r="C179" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -3912,10 +3831,10 @@
         <v>181</v>
       </c>
       <c r="B180" t="s">
-        <v>257</v>
+        <v>67</v>
       </c>
       <c r="C180" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -3923,10 +3842,10 @@
         <v>182</v>
       </c>
       <c r="B181" t="s">
-        <v>259</v>
+        <v>221</v>
       </c>
       <c r="C181" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -3934,10 +3853,10 @@
         <v>183</v>
       </c>
       <c r="B182" t="s">
-        <v>255</v>
+        <v>212</v>
       </c>
       <c r="C182" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -3945,10 +3864,10 @@
         <v>184</v>
       </c>
       <c r="B183" t="s">
-        <v>247</v>
+        <v>212</v>
       </c>
       <c r="C183" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -3956,10 +3875,10 @@
         <v>185</v>
       </c>
       <c r="B184" t="s">
-        <v>247</v>
+        <v>212</v>
       </c>
       <c r="C184" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -3967,10 +3886,10 @@
         <v>186</v>
       </c>
       <c r="B185" t="s">
-        <v>252</v>
+        <v>219</v>
       </c>
       <c r="C185" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -3978,10 +3897,10 @@
         <v>187</v>
       </c>
       <c r="B186" t="s">
-        <v>258</v>
+        <v>205</v>
       </c>
       <c r="C186" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -3989,10 +3908,10 @@
         <v>188</v>
       </c>
       <c r="B187" t="s">
-        <v>257</v>
+        <v>212</v>
       </c>
       <c r="C187" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -4000,10 +3919,10 @@
         <v>189</v>
       </c>
       <c r="B188" t="s">
-        <v>248</v>
+        <v>209</v>
       </c>
       <c r="C188" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -4011,10 +3930,10 @@
         <v>190</v>
       </c>
       <c r="B189" t="s">
-        <v>46</v>
+        <v>215</v>
       </c>
       <c r="C189" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -4022,10 +3941,10 @@
         <v>191</v>
       </c>
       <c r="B190" t="s">
-        <v>254</v>
+        <v>217</v>
       </c>
       <c r="C190" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -4033,10 +3952,10 @@
         <v>192</v>
       </c>
       <c r="B191" t="s">
-        <v>248</v>
+        <v>209</v>
       </c>
       <c r="C191" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -4044,10 +3963,10 @@
         <v>193</v>
       </c>
       <c r="B192" t="s">
-        <v>243</v>
+        <v>193</v>
       </c>
       <c r="C192" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -4055,10 +3974,10 @@
         <v>194</v>
       </c>
       <c r="B193" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="C193" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -4066,10 +3985,10 @@
         <v>195</v>
       </c>
       <c r="B194" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="C194" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -4077,10 +3996,10 @@
         <v>196</v>
       </c>
       <c r="B195" t="s">
-        <v>252</v>
+        <v>219</v>
       </c>
       <c r="C195" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -4088,10 +4007,10 @@
         <v>197</v>
       </c>
       <c r="B196" t="s">
-        <v>252</v>
+        <v>208</v>
       </c>
       <c r="C196" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -4099,10 +4018,10 @@
         <v>198</v>
       </c>
       <c r="B197" t="s">
-        <v>253</v>
+        <v>206</v>
       </c>
       <c r="C197" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -4110,10 +4029,10 @@
         <v>199</v>
       </c>
       <c r="B198" t="s">
-        <v>243</v>
+        <v>213</v>
       </c>
       <c r="C198" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -4121,10 +4040,10 @@
         <v>200</v>
       </c>
       <c r="B199" t="s">
-        <v>253</v>
+        <v>206</v>
       </c>
       <c r="C199" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -4132,10 +4051,10 @@
         <v>201</v>
       </c>
       <c r="B200" t="s">
-        <v>253</v>
+        <v>206</v>
       </c>
       <c r="C200" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -4143,455 +4062,10 @@
         <v>202</v>
       </c>
       <c r="B201" t="s">
-        <v>253</v>
+        <v>213</v>
       </c>
       <c r="C201" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3">
-      <c r="A202" t="s">
-        <v>203</v>
-      </c>
-      <c r="B202" t="s">
-        <v>252</v>
-      </c>
-      <c r="C202" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3">
-      <c r="A203" t="s">
-        <v>204</v>
-      </c>
-      <c r="B203" t="s">
-        <v>243</v>
-      </c>
-      <c r="C203" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3">
-      <c r="A204" t="s">
-        <v>205</v>
-      </c>
-      <c r="B204" t="s">
-        <v>251</v>
-      </c>
-      <c r="C204" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3">
-      <c r="A205" t="s">
-        <v>206</v>
-      </c>
-      <c r="B205" t="s">
-        <v>255</v>
-      </c>
-      <c r="C205" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3">
-      <c r="A206" t="s">
-        <v>207</v>
-      </c>
-      <c r="B206" t="s">
-        <v>255</v>
-      </c>
-      <c r="C206" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3">
-      <c r="A207" t="s">
-        <v>208</v>
-      </c>
-      <c r="B207" t="s">
-        <v>254</v>
-      </c>
-      <c r="C207" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3">
-      <c r="A208" t="s">
-        <v>209</v>
-      </c>
-      <c r="B208" t="s">
-        <v>254</v>
-      </c>
-      <c r="C208" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3">
-      <c r="A209" t="s">
-        <v>210</v>
-      </c>
-      <c r="B209" t="s">
-        <v>260</v>
-      </c>
-      <c r="C209" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3">
-      <c r="A210" t="s">
-        <v>211</v>
-      </c>
-      <c r="B210" t="s">
-        <v>246</v>
-      </c>
-      <c r="C210" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3">
-      <c r="A211" t="s">
-        <v>212</v>
-      </c>
-      <c r="B211" t="s">
-        <v>255</v>
-      </c>
-      <c r="C211" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3">
-      <c r="A212" t="s">
-        <v>213</v>
-      </c>
-      <c r="B212" t="s">
-        <v>255</v>
-      </c>
-      <c r="C212" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3">
-      <c r="A213" t="s">
-        <v>214</v>
-      </c>
-      <c r="B213" t="s">
-        <v>261</v>
-      </c>
-      <c r="C213" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3">
-      <c r="A214" t="s">
-        <v>215</v>
-      </c>
-      <c r="B214" t="s">
-        <v>245</v>
-      </c>
-      <c r="C214" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3">
-      <c r="A215" t="s">
-        <v>216</v>
-      </c>
-      <c r="B215" t="s">
-        <v>247</v>
-      </c>
-      <c r="C215" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3">
-      <c r="A216" t="s">
-        <v>217</v>
-      </c>
-      <c r="B216" t="s">
-        <v>252</v>
-      </c>
-      <c r="C216" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3">
-      <c r="A217" t="s">
-        <v>218</v>
-      </c>
-      <c r="B217" t="s">
-        <v>252</v>
-      </c>
-      <c r="C217" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3">
-      <c r="A218" t="s">
-        <v>219</v>
-      </c>
-      <c r="B218" t="s">
-        <v>254</v>
-      </c>
-      <c r="C218" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3">
-      <c r="A219" t="s">
-        <v>220</v>
-      </c>
-      <c r="B219" t="s">
-        <v>252</v>
-      </c>
-      <c r="C219" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3">
-      <c r="A220" t="s">
-        <v>221</v>
-      </c>
-      <c r="B220" t="s">
-        <v>254</v>
-      </c>
-      <c r="C220" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3">
-      <c r="A221" t="s">
-        <v>222</v>
-      </c>
-      <c r="B221" t="s">
-        <v>252</v>
-      </c>
-      <c r="C221" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3">
-      <c r="A222" t="s">
-        <v>223</v>
-      </c>
-      <c r="B222" t="s">
-        <v>252</v>
-      </c>
-      <c r="C222" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3">
-      <c r="A223" t="s">
-        <v>224</v>
-      </c>
-      <c r="B223" t="s">
-        <v>250</v>
-      </c>
-      <c r="C223" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3">
-      <c r="A224" t="s">
-        <v>225</v>
-      </c>
-      <c r="B224" t="s">
-        <v>261</v>
-      </c>
-      <c r="C224" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3">
-      <c r="A225" t="s">
-        <v>226</v>
-      </c>
-      <c r="B225" t="s">
-        <v>261</v>
-      </c>
-      <c r="C225" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3">
-      <c r="A226" t="s">
-        <v>227</v>
-      </c>
-      <c r="B226" t="s">
-        <v>257</v>
-      </c>
-      <c r="C226" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3">
-      <c r="A227" t="s">
-        <v>228</v>
-      </c>
-      <c r="B227" t="s">
-        <v>257</v>
-      </c>
-      <c r="C227" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3">
-      <c r="A228" t="s">
-        <v>229</v>
-      </c>
-      <c r="B228" t="s">
-        <v>257</v>
-      </c>
-      <c r="C228" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3">
-      <c r="A229" t="s">
-        <v>230</v>
-      </c>
-      <c r="B229" t="s">
-        <v>245</v>
-      </c>
-      <c r="C229" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3">
-      <c r="A230" t="s">
-        <v>231</v>
-      </c>
-      <c r="B230" t="s">
-        <v>243</v>
-      </c>
-      <c r="C230" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3">
-      <c r="A231" t="s">
-        <v>232</v>
-      </c>
-      <c r="B231" t="s">
-        <v>257</v>
-      </c>
-      <c r="C231" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3">
-      <c r="A232" t="s">
-        <v>233</v>
-      </c>
-      <c r="B232" t="s">
-        <v>245</v>
-      </c>
-      <c r="C232" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3">
-      <c r="A233" t="s">
-        <v>234</v>
-      </c>
-      <c r="B233" t="s">
-        <v>253</v>
-      </c>
-      <c r="C233" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3">
-      <c r="A234" t="s">
-        <v>235</v>
-      </c>
-      <c r="B234" t="s">
-        <v>253</v>
-      </c>
-      <c r="C234" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3">
-      <c r="A235" t="s">
-        <v>236</v>
-      </c>
-      <c r="B235" t="s">
-        <v>253</v>
-      </c>
-      <c r="C235" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3">
-      <c r="A236" t="s">
-        <v>237</v>
-      </c>
-      <c r="B236" t="s">
-        <v>252</v>
-      </c>
-      <c r="C236" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3">
-      <c r="A237" t="s">
-        <v>238</v>
-      </c>
-      <c r="B237" t="s">
-        <v>243</v>
-      </c>
-      <c r="C237" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3">
-      <c r="A238" t="s">
-        <v>239</v>
-      </c>
-      <c r="B238" t="s">
-        <v>248</v>
-      </c>
-      <c r="C238" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3">
-      <c r="A239" t="s">
-        <v>240</v>
-      </c>
-      <c r="B239" t="s">
-        <v>257</v>
-      </c>
-      <c r="C239" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3">
-      <c r="A240" t="s">
-        <v>241</v>
-      </c>
-      <c r="B240" t="s">
-        <v>249</v>
-      </c>
-      <c r="C240" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3">
-      <c r="A241" t="s">
-        <v>242</v>
-      </c>
-      <c r="B241" t="s">
-        <v>257</v>
-      </c>
-      <c r="C241" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3">
-      <c r="C242" t="s">
-        <v>360</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -4609,650 +4083,650 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>361</v>
+        <v>334</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>362</v>
+        <v>335</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>363</v>
+        <v>336</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>364</v>
+        <v>337</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>365</v>
+        <v>338</v>
       </c>
       <c r="B2" t="s">
-        <v>412</v>
+        <v>385</v>
       </c>
       <c r="C2" t="s">
-        <v>443</v>
+        <v>416</v>
       </c>
       <c r="D2" t="s">
-        <v>482</v>
+        <v>455</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>366</v>
+        <v>339</v>
       </c>
       <c r="C3" t="s">
-        <v>444</v>
+        <v>417</v>
       </c>
       <c r="D3" t="s">
-        <v>483</v>
+        <v>456</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>367</v>
+        <v>340</v>
       </c>
       <c r="B4" t="s">
-        <v>413</v>
+        <v>386</v>
       </c>
       <c r="C4" t="s">
-        <v>445</v>
+        <v>418</v>
       </c>
       <c r="D4" t="s">
-        <v>484</v>
+        <v>457</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>368</v>
+        <v>341</v>
       </c>
       <c r="B5" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
       <c r="C5" t="s">
-        <v>446</v>
+        <v>419</v>
       </c>
       <c r="D5" t="s">
-        <v>485</v>
+        <v>458</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>369</v>
+        <v>342</v>
       </c>
       <c r="B6" t="s">
-        <v>415</v>
+        <v>388</v>
       </c>
       <c r="C6" t="s">
-        <v>447</v>
+        <v>420</v>
       </c>
       <c r="D6" t="s">
-        <v>486</v>
+        <v>459</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>370</v>
+        <v>343</v>
       </c>
       <c r="C7" t="s">
-        <v>448</v>
+        <v>421</v>
       </c>
       <c r="D7" t="s">
-        <v>487</v>
+        <v>460</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>371</v>
+        <v>344</v>
       </c>
       <c r="B8" t="s">
-        <v>416</v>
+        <v>389</v>
       </c>
       <c r="C8" t="s">
-        <v>449</v>
+        <v>422</v>
       </c>
       <c r="D8" t="s">
-        <v>488</v>
+        <v>461</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>372</v>
+        <v>345</v>
       </c>
       <c r="B9" t="s">
-        <v>413</v>
+        <v>386</v>
       </c>
       <c r="C9" t="s">
-        <v>450</v>
+        <v>423</v>
       </c>
       <c r="D9" t="s">
-        <v>489</v>
+        <v>462</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>373</v>
+        <v>346</v>
       </c>
       <c r="B10" t="s">
-        <v>417</v>
+        <v>390</v>
       </c>
       <c r="C10" t="s">
-        <v>451</v>
+        <v>424</v>
       </c>
       <c r="D10" t="s">
-        <v>490</v>
+        <v>463</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>374</v>
+        <v>347</v>
       </c>
       <c r="B11" t="s">
-        <v>418</v>
+        <v>391</v>
       </c>
       <c r="C11" t="s">
-        <v>452</v>
+        <v>425</v>
       </c>
       <c r="D11" t="s">
-        <v>482</v>
+        <v>455</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>375</v>
+        <v>348</v>
       </c>
       <c r="B12" t="s">
-        <v>419</v>
+        <v>392</v>
       </c>
       <c r="C12" t="s">
-        <v>453</v>
+        <v>426</v>
       </c>
       <c r="D12" t="s">
-        <v>491</v>
+        <v>464</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>376</v>
+        <v>349</v>
       </c>
       <c r="B13" t="s">
-        <v>416</v>
+        <v>389</v>
       </c>
       <c r="C13" t="s">
-        <v>454</v>
+        <v>427</v>
       </c>
       <c r="D13" t="s">
-        <v>492</v>
+        <v>465</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>377</v>
+        <v>350</v>
       </c>
       <c r="B14" t="s">
-        <v>420</v>
+        <v>393</v>
       </c>
       <c r="C14" t="s">
-        <v>455</v>
+        <v>428</v>
       </c>
       <c r="D14" t="s">
-        <v>493</v>
+        <v>466</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>378</v>
+        <v>351</v>
       </c>
       <c r="C15" t="s">
-        <v>456</v>
+        <v>429</v>
       </c>
       <c r="D15" t="s">
-        <v>494</v>
+        <v>467</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>379</v>
+        <v>352</v>
       </c>
       <c r="B16" t="s">
-        <v>421</v>
+        <v>394</v>
       </c>
       <c r="C16" t="s">
-        <v>457</v>
+        <v>430</v>
       </c>
       <c r="D16" t="s">
-        <v>495</v>
+        <v>468</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>380</v>
+        <v>353</v>
       </c>
       <c r="B17" t="s">
-        <v>422</v>
+        <v>395</v>
       </c>
       <c r="C17" t="s">
-        <v>458</v>
+        <v>431</v>
       </c>
       <c r="D17" t="s">
-        <v>482</v>
+        <v>455</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>381</v>
+        <v>354</v>
       </c>
       <c r="B18" t="s">
-        <v>423</v>
+        <v>396</v>
       </c>
       <c r="C18" t="s">
-        <v>459</v>
+        <v>432</v>
       </c>
       <c r="D18" t="s">
-        <v>496</v>
+        <v>469</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>382</v>
+        <v>355</v>
       </c>
       <c r="B19" t="s">
-        <v>424</v>
+        <v>397</v>
       </c>
       <c r="C19" t="s">
-        <v>460</v>
+        <v>433</v>
       </c>
       <c r="D19" t="s">
-        <v>497</v>
+        <v>470</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>383</v>
+        <v>356</v>
       </c>
       <c r="B20" t="s">
-        <v>425</v>
+        <v>398</v>
       </c>
       <c r="C20" t="s">
-        <v>461</v>
+        <v>434</v>
       </c>
       <c r="D20" t="s">
-        <v>498</v>
+        <v>471</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>384</v>
+        <v>357</v>
       </c>
       <c r="B21" t="s">
-        <v>426</v>
+        <v>399</v>
       </c>
       <c r="C21" t="s">
-        <v>462</v>
+        <v>435</v>
       </c>
       <c r="D21" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>385</v>
+        <v>358</v>
       </c>
       <c r="C22" t="s">
-        <v>461</v>
+        <v>434</v>
       </c>
       <c r="D22" t="s">
-        <v>500</v>
+        <v>473</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>386</v>
+        <v>359</v>
       </c>
       <c r="B23" t="s">
-        <v>427</v>
+        <v>400</v>
       </c>
       <c r="C23" t="s">
-        <v>461</v>
+        <v>434</v>
       </c>
       <c r="D23" t="s">
-        <v>501</v>
+        <v>474</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>387</v>
+        <v>360</v>
       </c>
       <c r="C24" t="s">
-        <v>463</v>
+        <v>436</v>
       </c>
       <c r="D24" t="s">
-        <v>502</v>
+        <v>475</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>388</v>
+        <v>361</v>
       </c>
       <c r="B25" t="s">
-        <v>425</v>
+        <v>398</v>
       </c>
       <c r="C25" t="s">
-        <v>464</v>
+        <v>437</v>
       </c>
       <c r="D25" t="s">
-        <v>503</v>
+        <v>476</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>389</v>
+        <v>362</v>
       </c>
       <c r="B26" t="s">
-        <v>428</v>
+        <v>401</v>
       </c>
       <c r="C26" t="s">
-        <v>465</v>
+        <v>438</v>
       </c>
       <c r="D26" t="s">
-        <v>465</v>
+        <v>438</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>390</v>
+        <v>363</v>
       </c>
       <c r="B27" t="s">
-        <v>429</v>
+        <v>402</v>
       </c>
       <c r="C27" t="s">
-        <v>466</v>
+        <v>439</v>
       </c>
       <c r="D27" t="s">
-        <v>504</v>
+        <v>477</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>391</v>
+        <v>364</v>
       </c>
       <c r="B28" t="s">
-        <v>430</v>
+        <v>403</v>
       </c>
       <c r="C28" t="s">
-        <v>454</v>
+        <v>427</v>
       </c>
       <c r="D28" t="s">
-        <v>482</v>
+        <v>455</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>392</v>
+        <v>365</v>
       </c>
       <c r="C29" t="s">
-        <v>454</v>
+        <v>427</v>
       </c>
       <c r="D29" t="s">
-        <v>492</v>
+        <v>465</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>393</v>
+        <v>366</v>
       </c>
       <c r="B30" t="s">
-        <v>431</v>
+        <v>404</v>
       </c>
       <c r="C30" t="s">
-        <v>467</v>
+        <v>440</v>
       </c>
       <c r="D30" t="s">
-        <v>505</v>
+        <v>478</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>394</v>
+        <v>367</v>
       </c>
       <c r="B31" t="s">
-        <v>422</v>
+        <v>395</v>
       </c>
       <c r="C31" t="s">
-        <v>462</v>
+        <v>435</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>395</v>
+        <v>368</v>
       </c>
       <c r="B32" t="s">
-        <v>432</v>
+        <v>405</v>
       </c>
       <c r="D32" t="s">
-        <v>506</v>
+        <v>479</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>396</v>
+        <v>369</v>
       </c>
       <c r="B33" t="s">
-        <v>413</v>
+        <v>386</v>
       </c>
       <c r="C33" t="s">
-        <v>468</v>
+        <v>441</v>
       </c>
       <c r="D33" t="s">
-        <v>482</v>
+        <v>455</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>397</v>
+        <v>370</v>
       </c>
       <c r="B34" t="s">
-        <v>433</v>
+        <v>406</v>
       </c>
       <c r="C34" t="s">
-        <v>469</v>
+        <v>442</v>
       </c>
       <c r="D34" t="s">
-        <v>507</v>
+        <v>480</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>398</v>
+        <v>371</v>
       </c>
       <c r="B35" t="s">
-        <v>434</v>
+        <v>407</v>
       </c>
       <c r="C35" t="s">
-        <v>470</v>
+        <v>443</v>
       </c>
       <c r="D35" t="s">
-        <v>508</v>
+        <v>481</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>399</v>
+        <v>372</v>
       </c>
       <c r="B36" t="s">
-        <v>435</v>
+        <v>408</v>
       </c>
       <c r="C36" t="s">
-        <v>471</v>
+        <v>444</v>
       </c>
       <c r="D36" t="s">
-        <v>509</v>
+        <v>482</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>400</v>
+        <v>373</v>
       </c>
       <c r="B37" t="s">
-        <v>436</v>
+        <v>409</v>
       </c>
       <c r="C37" t="s">
-        <v>472</v>
+        <v>445</v>
       </c>
       <c r="D37" t="s">
-        <v>510</v>
+        <v>483</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>401</v>
+        <v>374</v>
       </c>
       <c r="B38" t="s">
-        <v>437</v>
+        <v>410</v>
       </c>
       <c r="C38" t="s">
-        <v>473</v>
+        <v>446</v>
       </c>
       <c r="D38" t="s">
-        <v>511</v>
+        <v>484</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>402</v>
+        <v>375</v>
       </c>
       <c r="B39" t="s">
-        <v>416</v>
+        <v>389</v>
       </c>
       <c r="C39" t="s">
-        <v>474</v>
+        <v>447</v>
       </c>
       <c r="D39" t="s">
-        <v>512</v>
+        <v>485</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>403</v>
+        <v>376</v>
       </c>
       <c r="B40" t="s">
-        <v>438</v>
+        <v>411</v>
       </c>
       <c r="C40" t="s">
-        <v>475</v>
+        <v>448</v>
       </c>
       <c r="D40" t="s">
-        <v>482</v>
+        <v>455</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>404</v>
+        <v>377</v>
       </c>
       <c r="B41" t="s">
-        <v>439</v>
+        <v>412</v>
       </c>
       <c r="C41" t="s">
-        <v>476</v>
+        <v>449</v>
       </c>
       <c r="D41" t="s">
-        <v>513</v>
+        <v>486</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>405</v>
+        <v>378</v>
       </c>
       <c r="B42" t="s">
-        <v>440</v>
+        <v>413</v>
       </c>
       <c r="C42" t="s">
-        <v>477</v>
+        <v>450</v>
       </c>
       <c r="D42" t="s">
-        <v>493</v>
+        <v>466</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>406</v>
+        <v>379</v>
       </c>
       <c r="B43" t="s">
-        <v>422</v>
+        <v>395</v>
       </c>
       <c r="C43" t="s">
-        <v>478</v>
+        <v>451</v>
       </c>
       <c r="D43" t="s">
-        <v>514</v>
+        <v>487</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>407</v>
+        <v>380</v>
       </c>
       <c r="B44" t="s">
-        <v>441</v>
+        <v>414</v>
       </c>
       <c r="C44" t="s">
-        <v>479</v>
+        <v>452</v>
       </c>
       <c r="D44" t="s">
-        <v>515</v>
+        <v>488</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
       <c r="B45" t="s">
-        <v>427</v>
+        <v>400</v>
       </c>
       <c r="C45" t="s">
-        <v>480</v>
+        <v>453</v>
       </c>
       <c r="D45" t="s">
-        <v>516</v>
+        <v>489</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>409</v>
+        <v>382</v>
       </c>
       <c r="B46" t="s">
-        <v>425</v>
+        <v>398</v>
       </c>
       <c r="C46" t="s">
-        <v>461</v>
+        <v>434</v>
       </c>
       <c r="D46" t="s">
-        <v>517</v>
+        <v>490</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>410</v>
+        <v>383</v>
       </c>
       <c r="B47" t="s">
-        <v>428</v>
+        <v>401</v>
       </c>
       <c r="C47" t="s">
-        <v>454</v>
+        <v>427</v>
       </c>
       <c r="D47" t="s">
-        <v>518</v>
+        <v>491</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>411</v>
+        <v>384</v>
       </c>
       <c r="B48" t="s">
-        <v>442</v>
+        <v>415</v>
       </c>
       <c r="C48" t="s">
-        <v>481</v>
+        <v>454</v>
       </c>
       <c r="D48" t="s">
-        <v>519</v>
+        <v>492</v>
       </c>
     </row>
   </sheetData>

--- a/data/download/Competences-Map-Dataset.xlsx
+++ b/data/download/Competences-Map-Dataset.xlsx
@@ -635,7 +635,7 @@
     <t>Research</t>
   </si>
   <si>
-    <t>Community / Stakeholders</t>
+    <t>Collaboration</t>
   </si>
   <si>
     <t>Project ideation</t>
@@ -677,7 +677,7 @@
     <t>Archives</t>
   </si>
   <si>
-    <t>Disciplinary domains and practices</t>
+    <t>Domain-specific</t>
   </si>
   <si>
     <t>Language Analysis</t>
@@ -1172,25 +1172,25 @@
     <t>HKMALA - Hong Kong Martial Arts Living Archive</t>
   </si>
   <si>
-    <t>["Audio recording","2D image acquisition technologies"]</t>
-  </si>
-  <si>
-    <t>["2D image acquisition technologies"]</t>
+    <t>["Audio recording","2D acquisition"]</t>
+  </si>
+  <si>
+    <t>["2D acquisition"]</t>
   </si>
   <si>
     <t>["Audio recording","Text editing software","Video recording"]</t>
   </si>
   <si>
-    <t>["audio recording","GPS technologies","3D scanning"]</t>
-  </si>
-  <si>
-    <t>["Annotation system","2D image acquisition technologies"]</t>
-  </si>
-  <si>
-    <t>["2D image acquisition technologies","Optical microscopy"]</t>
-  </si>
-  <si>
-    <t>["Video recording","HD cameras","3D scanning","Motion capture and tracking technologies"]</t>
+    <t>["Audio recording","GPS","3D scanning"]</t>
+  </si>
+  <si>
+    <t>["Annotation system","2D acquisition"]</t>
+  </si>
+  <si>
+    <t>["2D acquisition","Optical microscopy"]</t>
+  </si>
+  <si>
+    <t>["Video recording","HD cameras","3D scanning","Motion tracking"]</t>
   </si>
   <si>
     <t>["OCR","Text editing software"]</t>
@@ -1202,10 +1202,10 @@
     <t>["Audio recording","Microphones"]</t>
   </si>
   <si>
-    <t>["2D image acquisition technologies","Annotation system"]</t>
-  </si>
-  <si>
-    <t>["OCR Systems","2D image acquisition technologies","Annotation system"]</t>
+    <t>["2D acquisition","Annotation system"]</t>
+  </si>
+  <si>
+    <t>["OCR","2D acquisition","Annotation system"]</t>
   </si>
   <si>
     <t>["Annotation system","Audio recording"]</t>
@@ -1214,25 +1214,25 @@
     <t>["Video recording","Audio recording"]</t>
   </si>
   <si>
-    <t>["Annotation system","2D image acquisition technologies","GPS technologies"]</t>
-  </si>
-  <si>
-    <t>["2D image acquisition technologies","Audio recording","Video recording"]</t>
+    <t>["Annotation system","2D acquisition","GPS"]</t>
+  </si>
+  <si>
+    <t>["2D acquisition","Audio recording","Video recording"]</t>
   </si>
   <si>
     <t>["Text editing software"]</t>
   </si>
   <si>
-    <t>["Audio recording","2D image acquisition technologies","Video recording"]</t>
-  </si>
-  <si>
-    <t>["Text","Pictures"]</t>
+    <t>["Audio recording","2D acquisition","Video recording"]</t>
+  </si>
+  <si>
+    <t>["Text editing software","Pictures"]</t>
   </si>
   <si>
     <t>["CAD software"]</t>
   </si>
   <si>
-    <t>["Text editing software","Video recording","2D image acquisition technologies"]</t>
+    <t>["Text editing software","Video recording","2D acquisition"]</t>
   </si>
   <si>
     <t>["Audio recording","Motion detection systems","Video recording"]</t>
@@ -1244,28 +1244,28 @@
     <t>["Photography","Motion detection systems","Video recording"]</t>
   </si>
   <si>
-    <t>["Microencapsulation scent technologies"]</t>
+    <t>["Microencapsulation scent"]</t>
   </si>
   <si>
     <t>["Pressure sensors","Slider sensors"]</t>
   </si>
   <si>
-    <t>["Video recording","2D image acquisition technologies","Audio recording"]</t>
-  </si>
-  <si>
-    <t>["Text editing software","2D acquisition technologies","GPS technologies"]</t>
+    <t>["Video recording","2D acquisition","Audio recording"]</t>
+  </si>
+  <si>
+    <t>["Text editing software","2D acquisition","GPS"]</t>
   </si>
   <si>
     <t>["Audio recording","Annotation system","Audio digitization tools"]</t>
   </si>
   <si>
-    <t>["Text editing software","Transcription tools","Audio recording","2D image acquisition technologies","Video recording"]</t>
-  </si>
-  <si>
-    <t>["Motion capture technologies","3D reconstruction systems","2D image acquisition technologies","Video recording","Annotation system"]</t>
-  </si>
-  <si>
-    <t>["Storytelling tools","Digital database"]</t>
+    <t>["Text editing software","Transcription tools","Audio recording","2D acquisition","Video recording"]</t>
+  </si>
+  <si>
+    <t>["Motion capture","3D reconstruction systems","2D acquisition","Video recording","Annotation system"]</t>
+  </si>
+  <si>
+    <t>["Storytelling tools","Database system"]</t>
   </si>
   <si>
     <t>["Game engine","Simulation algorithms"]</t>
@@ -1274,10 +1274,10 @@
     <t>["Typeface modeling software","Vector graphic software","Text editing software"]</t>
   </si>
   <si>
-    <t>["Alphabet-shaped pasta manufacturing technologies","Vector graphic software","Image editing software"]</t>
-  </si>
-  <si>
-    <t>["3D modeling software","Augmented Reality (AR)"]</t>
+    <t>["Alphabet-shaped pasta manufacturing","Vector graphic software","Image editing software"]</t>
+  </si>
+  <si>
+    <t>["3D modeling software","Augmented Reality"]</t>
   </si>
   <si>
     <t>["Visual-novel game engine","Vector graphic software"]</t>
@@ -1286,49 +1286,49 @@
     <t>["Game engine","3D modeling software"]</t>
   </si>
   <si>
-    <t>["3D printing technologies","3D modeling software"]</t>
+    <t>["3D printing","3D modeling software"]</t>
   </si>
   <si>
     <t>["Annotation system","Photo-editing software"]</t>
   </si>
   <si>
-    <t>["3D Motion Analysis software","Sensor Fusion"]</t>
-  </si>
-  <si>
-    <t>["NLP - Natural Language Processing","Machine learning"]</t>
-  </si>
-  <si>
-    <t>["Database technologies"]</t>
-  </si>
-  <si>
-    <t>["Audio processing technologies"]</t>
+    <t>["3D motion analysis software","Sensor Fusion"]</t>
+  </si>
+  <si>
+    <t>["Natural Language Processing (NLP)","Machine Learning"]</t>
+  </si>
+  <si>
+    <t>["Database system"]</t>
+  </si>
+  <si>
+    <t>["Audio processing"]</t>
   </si>
   <si>
     <t>["3D modeling software"]</t>
   </si>
   <si>
-    <t>["Audio processing technologies","Multimedia development engines"]</t>
+    <t>["Audio processing","Multimedia development engines"]</t>
   </si>
   <si>
     <t>["Minecraft 3D modeling tools"]</t>
   </si>
   <si>
-    <t>["Machine learning","Computer vision","Semantic web standards","Database technologies","AI techniques for text-analysis"]</t>
-  </si>
-  <si>
-    <t>["Database technologies","Semantic web standards","Audio processing technologies"]</t>
-  </si>
-  <si>
-    <t>["Multimedia processing and production technologies"]</t>
-  </si>
-  <si>
-    <t>["Database technologies","Archival systems"]</t>
+    <t>["Machine Learning","Computer vision","Semantic web standards","Database system","AI text-analysis"]</t>
+  </si>
+  <si>
+    <t>["Database system","Semantic web standards","Audio processing"]</t>
+  </si>
+  <si>
+    <t>["Multimedia processing and production"]</t>
+  </si>
+  <si>
+    <t>["Database system","Archival systems"]</t>
   </si>
   <si>
     <t>["Visual Effects software","3D animation software","Digital embroidery tool","3D modeling software","Rendering software"]</t>
   </si>
   <si>
-    <t>["Machine Learning","Text-to-Image model","NLP - Natural Language Processing"]</t>
+    <t>["Machine Learning","Text-to-Image model","Natural Language Processing (NLP)"]</t>
   </si>
   <si>
     <t>["Generative AI"]</t>
@@ -1340,13 +1340,13 @@
     <t>["Pattern generation software"]</t>
   </si>
   <si>
-    <t>["Database technologies","Annotation system","Vector graphic software"]</t>
+    <t>["Database system","Annotation system","Vector graphic software"]</t>
   </si>
   <si>
     <t>["Motion data analysis tools","Visual processing software","Sound analysis software"]</t>
   </si>
   <si>
-    <t>["Motion data translation systems","Arduino","Audio processing tools"]</t>
+    <t>["Motion data translation systems","Physical Computing","Audio processing"]</t>
   </si>
   <si>
     <t>["Motion analysis tools","Pattern generation software"]</t>
@@ -1355,40 +1355,40 @@
     <t>["Vector graphic software"]</t>
   </si>
   <si>
-    <t>["Vector graphic software","Generative art software","Integrated Development Environment (IDE) software","Arduino","Mapping technologies","Audio processing technologies"]</t>
+    <t>["Vector graphic software","Generative art software","Integrated Development Environment (IDE)","Physical Computing","Mapping tools","Audio processing"]</t>
   </si>
   <si>
     <t>["Vector graphic software","Image editing software"]</t>
   </si>
   <si>
-    <t>["Archival systems","Database technologies","Vector graphic software"]</t>
+    <t>["Archival systems","Database system","Vector graphic software"]</t>
   </si>
   <si>
     <t>["Knowledge Graph system"]</t>
   </si>
   <si>
-    <t>["Audio processing technologies","Database technologies"]</t>
-  </si>
-  <si>
-    <t>["Photo-editing software","Database technologies"]</t>
-  </si>
-  <si>
-    <t>["Multimedia development engines","Audio processing technologies"]</t>
-  </si>
-  <si>
-    <t>["Database technologies","Archival systems","Multimedia processing and production technologies"]</t>
-  </si>
-  <si>
-    <t>["Deep learning pattern recognition technologies","Database technologies","Motion data processing and analysis tools","Multimodal search and retrieval tools"]</t>
+    <t>["Audio processing","Database system"]</t>
+  </si>
+  <si>
+    <t>["Photo-editing software","Database system"]</t>
+  </si>
+  <si>
+    <t>["Multimedia development engines","Audio processing"]</t>
+  </si>
+  <si>
+    <t>["Database system","Archival systems","Multimedia processing and production"]</t>
+  </si>
+  <si>
+    <t>["Deep-learning pattern recognition","Database system","Motion data processing tools","Multimodal search and retrieval tools"]</t>
   </si>
   <si>
     <t>["Web platform"]</t>
   </si>
   <si>
-    <t>["Game engine","Voice, video, and text communication app"]</t>
-  </si>
-  <si>
-    <t>["Cloud Technologies"]</t>
+    <t>["Game engine","Media communication app"]</t>
+  </si>
+  <si>
+    <t>["Cloud system"]</t>
   </si>
   <si>
     <t>["Social Media"]</t>
@@ -1400,16 +1400,16 @@
     <t>["Visual-novel game engine","Web platform"]</t>
   </si>
   <si>
-    <t>["Game engine","Cloud Technologies"]</t>
+    <t>["Game engine","Cloud system"]</t>
   </si>
   <si>
     <t>["Ceramic casting"]</t>
   </si>
   <si>
-    <t>["Blockchain and NFT technologies"]</t>
-  </si>
-  <si>
-    <t>["Generative AI","LLM","Machine Learning (Reinforcement Learning from Human Feedback)"]</t>
+    <t>["NFT technologies"]</t>
+  </si>
+  <si>
+    <t>["Generative AI","LLM","Reinforcement Learning"]</t>
   </si>
   <si>
     <t>["Wiki-based platform","Web platform"]</t>
@@ -1418,43 +1418,43 @@
     <t>["Audio streaming platforms"]</t>
   </si>
   <si>
-    <t>["VR","Web3 technologies","Blockchain and NFT technologies"]</t>
-  </si>
-  <si>
-    <t>["Sensors","Microcontroller","Motion-activated system","Microphones","Wireless technologies"]</t>
+    <t>["VR","Web3 systems","NFT technologies"]</t>
+  </si>
+  <si>
+    <t>["Sensors","Microcontroller","Motion-activated system","Microphones","Wireless systems"]</t>
   </si>
   <si>
     <t>["Machine Learning","Web platform","Artificial Intelligence"]</t>
   </si>
   <si>
-    <t>["Data mining technologies","Machine Learning","Natural Language Processing","Web platform"]</t>
-  </si>
-  <si>
-    <t>["Cloud technologies","Participatory digital workflow production system"]</t>
+    <t>["Data mining","Machine Learning","Natural Language Processing (NLP)","Web platform"]</t>
+  </si>
+  <si>
+    <t>["Cloud system","Participatory digital workflow production"]</t>
   </si>
   <si>
     <t>["Web platform","Wiki-based platform"]</t>
   </si>
   <si>
-    <t>["Kinetic technologies","Projection mapping technologies"]</t>
-  </si>
-  <si>
-    <t>["Mobile App","NFC (Near Field Communication)","Virtual Reality (VR)","Interactive Displays","Projection Mapping technologies","Sensors","Augmented Reality (AR)"]</t>
+    <t>["Kinetic system","Projection Mapping"]</t>
+  </si>
+  <si>
+    <t>["Mobile App","Near Field Communication (NFC)","Virtual Reality (VR)","Interactive Displays","Projection Mapping","Sensors","Augmented Reality (AR)"]</t>
   </si>
   <si>
     <t>["Videomaking software","Narrative development software"]</t>
   </si>
   <si>
-    <t>["Projection mapping technologies","Generative AI","Voice-activated system"]</t>
-  </si>
-  <si>
-    <t>["Projection mapping technologies"]</t>
+    <t>["Projection Mapping","Generative AI","Voice-activated system"]</t>
+  </si>
+  <si>
+    <t>["Projection Mapping"]</t>
   </si>
   <si>
     <t>["Paper printing"]</t>
   </si>
   <si>
-    <t>["Media technologies","Social Media"]</t>
+    <t>["Media systems","Social Media"]</t>
   </si>
   <si>
     <t>["Motion Graphic Software","3D printing"]</t>
@@ -1466,34 +1466,34 @@
     <t>["Digital pattern making software","Textile digital manufacturing"]</t>
   </si>
   <si>
-    <t>["Scratch and sniff printing Technologies"]</t>
-  </si>
-  <si>
-    <t>["Projection mapping technologies","Motion-activated system"]</t>
+    <t>["Scratch and sniff printing"]</t>
+  </si>
+  <si>
+    <t>["Projection Mapping","Motion-activated system"]</t>
   </si>
   <si>
     <t>["Motion-activated system","Screen-based display"]</t>
   </si>
   <si>
-    <t>["Natural Language Processing","Augmented Reality (AR)","Mobile app","Digital camera"]</t>
-  </si>
-  <si>
-    <t>["Generative AI model","Web platform"]</t>
-  </si>
-  <si>
-    <t>["Projection mapping technologies","Voice-activated system","Projection mapping technologies"]</t>
-  </si>
-  <si>
-    <t>["Projection mapping technologies","Displays","Microphones","Motion-activated system"]</t>
-  </si>
-  <si>
-    <t>["NFT","Web3 platform","Blockchain"]</t>
+    <t>["Natural Language Processing (NLP)","Augmented Reality (AR)","Mobile App","Digital camera"]</t>
+  </si>
+  <si>
+    <t>["Generative AI","Web platform"]</t>
+  </si>
+  <si>
+    <t>["Projection Mapping","Voice-activated system"]</t>
+  </si>
+  <si>
+    <t>["Projection Mapping","Displays","Microphones","Motion-activated system"]</t>
+  </si>
+  <si>
+    <t>["Non-Fungible Token (NFT)","Web3 platform","Blockchain"]</t>
   </si>
   <si>
     <t>["Web3 platform","Cryptocurrencies","Blockchain"]</t>
   </si>
   <si>
-    <t>["Motion-activated system","Graphic motion animation technologies","Smart mirrors"]</t>
+    <t>["Motion-activated system","Graphic motion animation","Smart mirrors"]</t>
   </si>
 </sst>
 </file>

--- a/data/download/Competences-Map-Dataset.xlsx
+++ b/data/download/Competences-Map-Dataset.xlsx
@@ -1289,7 +1289,7 @@
     <t>["3D printing","3D modeling software"]</t>
   </si>
   <si>
-    <t>["Annotation system","Photo-editing software"]</t>
+    <t>["Annotation software","Photo-editing software"]</t>
   </si>
   <si>
     <t>["3D motion analysis software","Sensor Fusion"]</t>
@@ -1340,7 +1340,7 @@
     <t>["Pattern generation software"]</t>
   </si>
   <si>
-    <t>["Database system","Annotation system","Vector graphic software"]</t>
+    <t>["Database system","Annotation software","Vector graphic software"]</t>
   </si>
   <si>
     <t>["Motion data analysis tools","Visual processing software","Sound analysis software"]</t>
@@ -1385,7 +1385,7 @@
     <t>["Web platform"]</t>
   </si>
   <si>
-    <t>["Game engine","Media communication app"]</t>
+    <t>["Gaming system","Media communication app"]</t>
   </si>
   <si>
     <t>["Cloud system"]</t>
@@ -1397,10 +1397,10 @@
     <t>["Mobile App","AR technologies"]</t>
   </si>
   <si>
-    <t>["Visual-novel game engine","Web platform"]</t>
-  </si>
-  <si>
-    <t>["Game engine","Cloud system"]</t>
+    <t>["Visual-novel gaming system","Web platform"]</t>
+  </si>
+  <si>
+    <t>["Gaming system","Cloud system"]</t>
   </si>
   <si>
     <t>["Ceramic casting"]</t>
@@ -1424,10 +1424,10 @@
     <t>["Sensors","Microcontroller","Motion-activated system","Microphones","Wireless systems"]</t>
   </si>
   <si>
-    <t>["Machine Learning","Web platform","Artificial Intelligence"]</t>
-  </si>
-  <si>
-    <t>["Data mining","Machine Learning","Natural Language Processing (NLP)","Web platform"]</t>
+    <t>["AI Model","Web platform","Artificial Intelligence"]</t>
+  </si>
+  <si>
+    <t>["Data mining","AI Model","Natural Language Processing (NLP)","Web platform"]</t>
   </si>
   <si>
     <t>["Cloud system","Participatory digital workflow production"]</t>
@@ -1457,7 +1457,7 @@
     <t>["Media systems","Social Media"]</t>
   </si>
   <si>
-    <t>["Motion Graphic Software","3D printing"]</t>
+    <t>["Motion Graphic Software","3D printed artefacts"]</t>
   </si>
   <si>
     <t>["Motion-activated system","Microcontroller","Microphones"]</t>

--- a/data/download/Competences-Map-Dataset.xlsx
+++ b/data/download/Competences-Map-Dataset.xlsx
@@ -761,7 +761,7 @@
     <t>["A soup to remember", "Fabric Museum: TextLoom"]</t>
   </si>
   <si>
-    <t>["A soup to remember", "ARCHETIPI da Poseidonia a Paestum, ricerca di manufatti contemporanei", "MODAS: Sas Boghes da sos Singers a Tenor", "Polifonia Portal", "Synthetic Memories", "Swapmuseun", "Comuniterràe"]</t>
+    <t>["A soup to remember", "ARCHETIPI da Poseidonia a Paestum, ricerca di manufatti contemporanei", "MODAS: Sas Boghes da sos Singers a Tenor", "Polifonia Portal", "Synthetic Memories", "Swapmuseum", "Comuniterràe"]</t>
   </si>
   <si>
     <t>["A soup to remember", "Cultural Avatars", "Synthetic Memories"]</t>
@@ -779,7 +779,7 @@
     <t>["A soup to remember", "Pub Museums"]</t>
   </si>
   <si>
-    <t>["A soup to remember", "THE GREAT PALERMO", "Virtual Dance Museum", "TRACTION Opera co-creation for a social transformation", "Omni Chang’An Site Concept Show", "Synthetic Memories", "Craftal", "RISE UP - Revitalising Languages and Safeguarding Cultural Diversity", "Urban Media Archive, [unarchiving] program", "Swapmuseun", "MEMEX. MEMories and EXperiences for inclusive digital storytelling", "Quantum Temple Path to Alango", "Quantum Temple Passport"]</t>
+    <t>["A soup to remember", "THE GREAT PALERMO", "Virtual Dance Museum", "TRACTION Opera co-creation for a social transformation", "Omni Chang’An Site Concept Show", "Synthetic Memories", "Craftal", "RISE UP - Revitalising Languages and Safeguarding Cultural Diversity", "Urban Media Archive, [unarchiving] program", "Swapmuseum", "MEMEX. MEMories and EXperiences for inclusive digital storytelling", "Quantum Temple Path to Alango", "Quantum Temple Passport"]</t>
   </si>
   <si>
     <t>["A soup to remember", "Tempio del Brunello"]</t>
@@ -806,7 +806,7 @@
     <t>["Pub Museums", "Synthetic Memories", "Quantum Temple Path to Alango", "Quantum Temple Passport"]</t>
   </si>
   <si>
-    <t>["Pub Museums", "THE GREAT PALERMO", "Camino Al Mictlan NFT", "Whispering table", "Synthetic Memories", "Swapmuseun", "Comuniterràe", "Tacit Dialogues"]</t>
+    <t>["Pub Museums", "THE GREAT PALERMO", "Camino Al Mictlan NFT", "Whispering table", "Synthetic Memories", "Swapmuseum", "Comuniterràe", "Tacit Dialogues"]</t>
   </si>
   <si>
     <t>["THE GREAT PALERMO"]</t>
@@ -956,7 +956,7 @@
     <t>["Bamboo Weaving Mold"]</t>
   </si>
   <si>
-    <t>["Urban Media Archive, [unarchiving] program", "Swapmuseun"]</t>
+    <t>["Urban Media Archive, [unarchiving] program", "Swapmuseum"]</t>
   </si>
   <si>
     <t>["Urban Media Archive, [unarchiving] program"]</t>
@@ -968,7 +968,7 @@
     <t>["Urban Media Archive, [unarchiving] program", "Piccolo Museo del Diario"]</t>
   </si>
   <si>
-    <t>["Swapmuseun"]</t>
+    <t>["Swapmuseum"]</t>
   </si>
   <si>
     <t>["Comuniterràe"]</t>
@@ -1121,7 +1121,7 @@
     <t>Urban Media Archive, [unarchiving] program</t>
   </si>
   <si>
-    <t>Swapmuseun</t>
+    <t>Swapmuseum</t>
   </si>
   <si>
     <t>Comuniterràe</t>
